--- a/ml/stock_data/buy_sell_labels/GS.xlsx
+++ b/ml/stock_data/buy_sell_labels/GS.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C578"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,10 +387,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43208</v>
+        <v>43122</v>
       </c>
       <c r="C2" t="n">
-        <v>243.16</v>
+        <v>249.66</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43209</v>
+        <v>43123</v>
       </c>
       <c r="C3" t="n">
-        <v>243.32</v>
+        <v>248.29</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43210</v>
+        <v>43124</v>
       </c>
       <c r="C4" t="n">
-        <v>241.21</v>
+        <v>253.63</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43213</v>
+        <v>43125</v>
       </c>
       <c r="C5" t="n">
-        <v>236.14</v>
+        <v>256.83</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43214</v>
+        <v>43126</v>
       </c>
       <c r="C6" t="n">
-        <v>232.14</v>
+        <v>255.98</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43215</v>
+        <v>43129</v>
       </c>
       <c r="C7" t="n">
-        <v>229.02</v>
+        <v>260.12</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43216</v>
+        <v>43130</v>
       </c>
       <c r="C8" t="n">
-        <v>229.84</v>
+        <v>256.74</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43217</v>
+        <v>43131</v>
       </c>
       <c r="C9" t="n">
-        <v>229.57</v>
+        <v>255.74</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43220</v>
+        <v>43132</v>
       </c>
       <c r="C10" t="n">
-        <v>228.16</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43221</v>
+        <v>43133</v>
       </c>
       <c r="C11" t="n">
-        <v>226.57</v>
+        <v>248.25</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43222</v>
+        <v>43136</v>
       </c>
       <c r="C12" t="n">
-        <v>224.06</v>
+        <v>237.81</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43223</v>
+        <v>43137</v>
       </c>
       <c r="C13" t="n">
-        <v>223.45</v>
+        <v>246.97</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43224</v>
+        <v>43138</v>
       </c>
       <c r="C14" t="n">
-        <v>224.91</v>
+        <v>245.44</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43227</v>
+        <v>43139</v>
       </c>
       <c r="C15" t="n">
-        <v>227.08</v>
+        <v>235.18</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43228</v>
+        <v>43140</v>
       </c>
       <c r="C16" t="n">
-        <v>226.89</v>
+        <v>237.99</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43229</v>
+        <v>43143</v>
       </c>
       <c r="C17" t="n">
-        <v>231.41</v>
+        <v>241.68</v>
       </c>
     </row>
     <row r="18">
@@ -563,10 +563,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43230</v>
+        <v>43144</v>
       </c>
       <c r="C18" t="n">
-        <v>233.05</v>
+        <v>243.94</v>
       </c>
     </row>
     <row r="19">
@@ -574,10 +574,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43231</v>
+        <v>43145</v>
       </c>
       <c r="C19" t="n">
-        <v>232.55</v>
+        <v>250.67</v>
       </c>
     </row>
     <row r="20">
@@ -585,10 +585,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43234</v>
+        <v>43146</v>
       </c>
       <c r="C20" t="n">
-        <v>233.5</v>
+        <v>255.54</v>
       </c>
     </row>
     <row r="21">
@@ -596,10 +596,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43235</v>
+        <v>43147</v>
       </c>
       <c r="C21" t="n">
-        <v>231.25</v>
+        <v>255.48</v>
       </c>
     </row>
     <row r="22">
@@ -607,10 +607,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43236</v>
+        <v>43151</v>
       </c>
       <c r="C22" t="n">
-        <v>230.68</v>
+        <v>252.88</v>
       </c>
     </row>
     <row r="23">
@@ -618,10 +618,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43237</v>
+        <v>43152</v>
       </c>
       <c r="C23" t="n">
-        <v>228.9</v>
+        <v>251.45</v>
       </c>
     </row>
     <row r="24">
@@ -629,10 +629,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43238</v>
+        <v>43153</v>
       </c>
       <c r="C24" t="n">
-        <v>226.89</v>
+        <v>249.57</v>
       </c>
     </row>
     <row r="25">
@@ -640,10 +640,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43241</v>
+        <v>43154</v>
       </c>
       <c r="C25" t="n">
-        <v>227.56</v>
+        <v>254.67</v>
       </c>
     </row>
     <row r="26">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43242</v>
+        <v>43157</v>
       </c>
       <c r="C26" t="n">
-        <v>227.84</v>
+        <v>258.96</v>
       </c>
     </row>
     <row r="27">
@@ -662,10 +662,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43243</v>
+        <v>43158</v>
       </c>
       <c r="C27" t="n">
-        <v>227.66</v>
+        <v>255.78</v>
       </c>
     </row>
     <row r="28">
@@ -673,10 +673,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43244</v>
+        <v>43159</v>
       </c>
       <c r="C28" t="n">
-        <v>226.02</v>
+        <v>251.71</v>
       </c>
     </row>
     <row r="29">
@@ -684,10 +684,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43245</v>
+        <v>43160</v>
       </c>
       <c r="C29" t="n">
-        <v>224.98</v>
+        <v>245.82</v>
       </c>
     </row>
     <row r="30">
@@ -695,10 +695,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43249</v>
+        <v>43161</v>
       </c>
       <c r="C30" t="n">
-        <v>217.34</v>
+        <v>247.11</v>
       </c>
     </row>
     <row r="31">
@@ -706,10 +706,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43250</v>
+        <v>43164</v>
       </c>
       <c r="C31" t="n">
-        <v>220.16</v>
+        <v>251.89</v>
       </c>
     </row>
     <row r="32">
@@ -717,10 +717,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43251</v>
+        <v>43165</v>
       </c>
       <c r="C32" t="n">
-        <v>217.01</v>
+        <v>255.54</v>
       </c>
     </row>
     <row r="33">
@@ -728,10 +728,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43252</v>
+        <v>43166</v>
       </c>
       <c r="C33" t="n">
-        <v>219.38</v>
+        <v>254.03</v>
       </c>
     </row>
     <row r="34">
@@ -739,10 +739,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43255</v>
+        <v>43167</v>
       </c>
       <c r="C34" t="n">
-        <v>220.86</v>
+        <v>254.97</v>
       </c>
     </row>
     <row r="35">
@@ -750,10 +750,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43256</v>
+        <v>43168</v>
       </c>
       <c r="C35" t="n">
-        <v>219.37</v>
+        <v>259.22</v>
       </c>
     </row>
     <row r="36">
@@ -761,10 +761,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43257</v>
+        <v>43171</v>
       </c>
       <c r="C36" t="n">
-        <v>223.11</v>
+        <v>261.71</v>
       </c>
     </row>
     <row r="37">
@@ -772,10 +772,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43258</v>
+        <v>43172</v>
       </c>
       <c r="C37" t="n">
-        <v>224.28</v>
+        <v>257.07</v>
       </c>
     </row>
     <row r="38">
@@ -783,10 +783,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43259</v>
+        <v>43173</v>
       </c>
       <c r="C38" t="n">
-        <v>224.22</v>
+        <v>253.15</v>
       </c>
     </row>
     <row r="39">
@@ -794,10 +794,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43262</v>
+        <v>43174</v>
       </c>
       <c r="C39" t="n">
-        <v>224.89</v>
+        <v>255.23</v>
       </c>
     </row>
     <row r="40">
@@ -805,10 +805,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43263</v>
+        <v>43175</v>
       </c>
       <c r="C40" t="n">
-        <v>223.49</v>
+        <v>256.18</v>
       </c>
     </row>
     <row r="41">
@@ -816,10 +816,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43264</v>
+        <v>43178</v>
       </c>
       <c r="C41" t="n">
-        <v>224.64</v>
+        <v>251.33</v>
       </c>
     </row>
     <row r="42">
@@ -827,10 +827,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43265</v>
+        <v>43179</v>
       </c>
       <c r="C42" t="n">
-        <v>224.47</v>
+        <v>251.96</v>
       </c>
     </row>
     <row r="43">
@@ -838,10 +838,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43266</v>
+        <v>43180</v>
       </c>
       <c r="C43" t="n">
-        <v>222.81</v>
+        <v>250.68</v>
       </c>
     </row>
     <row r="44">
@@ -849,10 +849,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43269</v>
+        <v>43181</v>
       </c>
       <c r="C44" t="n">
-        <v>222.3</v>
+        <v>241.82</v>
       </c>
     </row>
     <row r="45">
@@ -860,10 +860,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43270</v>
+        <v>43182</v>
       </c>
       <c r="C45" t="n">
-        <v>219.35</v>
+        <v>234.79</v>
       </c>
     </row>
     <row r="46">
@@ -871,10 +871,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43271</v>
+        <v>43185</v>
       </c>
       <c r="C46" t="n">
-        <v>218.87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47">
@@ -882,10 +882,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43272</v>
+        <v>43186</v>
       </c>
       <c r="C47" t="n">
-        <v>218.06</v>
+        <v>236.71</v>
       </c>
     </row>
     <row r="48">
@@ -893,10 +893,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43273</v>
+        <v>43187</v>
       </c>
       <c r="C48" t="n">
-        <v>217.14</v>
+        <v>238.73</v>
       </c>
     </row>
     <row r="49">
@@ -904,10 +904,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43276</v>
+        <v>43188</v>
       </c>
       <c r="C49" t="n">
-        <v>212.84</v>
+        <v>241.11</v>
       </c>
     </row>
     <row r="50">
@@ -915,10 +915,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43277</v>
+        <v>43192</v>
       </c>
       <c r="C50" t="n">
-        <v>212.87</v>
+        <v>236.79</v>
       </c>
     </row>
     <row r="51">
@@ -926,10 +926,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43278</v>
+        <v>43193</v>
       </c>
       <c r="C51" t="n">
-        <v>211.53</v>
+        <v>239.89</v>
       </c>
     </row>
     <row r="52">
@@ -937,10 +937,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43279</v>
+        <v>43194</v>
       </c>
       <c r="C52" t="n">
-        <v>214.64</v>
+        <v>241.84</v>
       </c>
     </row>
     <row r="53">
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43280</v>
+        <v>43195</v>
       </c>
       <c r="C53" t="n">
-        <v>211.9</v>
+        <v>244.89</v>
       </c>
     </row>
     <row r="54">
@@ -959,10 +959,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43283</v>
+        <v>43196</v>
       </c>
       <c r="C54" t="n">
-        <v>214.49</v>
+        <v>239.3</v>
       </c>
     </row>
     <row r="55">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43284</v>
+        <v>43199</v>
       </c>
       <c r="C55" t="n">
-        <v>211.72</v>
+        <v>241.43</v>
       </c>
     </row>
     <row r="56">
@@ -981,10 +981,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43286</v>
+        <v>43200</v>
       </c>
       <c r="C56" t="n">
-        <v>212.07</v>
+        <v>245.62</v>
       </c>
     </row>
     <row r="57">
@@ -992,10 +992,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43287</v>
+        <v>43201</v>
       </c>
       <c r="C57" t="n">
-        <v>213.08</v>
+        <v>242.15</v>
       </c>
     </row>
     <row r="58">
@@ -1003,10 +1003,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43290</v>
+        <v>43202</v>
       </c>
       <c r="C58" t="n">
-        <v>219.03</v>
+        <v>248.51</v>
       </c>
     </row>
     <row r="59">
@@ -1014,10 +1014,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43291</v>
+        <v>43203</v>
       </c>
       <c r="C59" t="n">
-        <v>217.94</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60">
@@ -1025,10 +1025,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43292</v>
+        <v>43206</v>
       </c>
       <c r="C60" t="n">
-        <v>216.79</v>
+        <v>246.88</v>
       </c>
     </row>
     <row r="61">
@@ -1036,10 +1036,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43293</v>
+        <v>43207</v>
       </c>
       <c r="C61" t="n">
-        <v>218.29</v>
+        <v>242.81</v>
       </c>
     </row>
     <row r="62">
@@ -1047,10 +1047,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43294</v>
+        <v>43208</v>
       </c>
       <c r="C62" t="n">
-        <v>217.51</v>
+        <v>243.16</v>
       </c>
     </row>
     <row r="63">
@@ -1058,10 +1058,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43297</v>
+        <v>43209</v>
       </c>
       <c r="C63" t="n">
-        <v>222.35</v>
+        <v>243.32</v>
       </c>
     </row>
     <row r="64">
@@ -1069,10 +1069,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43298</v>
+        <v>43210</v>
       </c>
       <c r="C64" t="n">
-        <v>221.94</v>
+        <v>241.21</v>
       </c>
     </row>
     <row r="65">
@@ -1080,10 +1080,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43299</v>
+        <v>43213</v>
       </c>
       <c r="C65" t="n">
-        <v>222.15</v>
+        <v>236.14</v>
       </c>
     </row>
     <row r="66">
@@ -1091,10 +1091,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43300</v>
+        <v>43214</v>
       </c>
       <c r="C66" t="n">
-        <v>220.61</v>
+        <v>232.14</v>
       </c>
     </row>
     <row r="67">
@@ -1102,10 +1102,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43301</v>
+        <v>43215</v>
       </c>
       <c r="C67" t="n">
-        <v>222.59</v>
+        <v>229.02</v>
       </c>
     </row>
     <row r="68">
@@ -1113,10 +1113,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43304</v>
+        <v>43216</v>
       </c>
       <c r="C68" t="n">
-        <v>224.58</v>
+        <v>229.84</v>
       </c>
     </row>
     <row r="69">
@@ -1124,10 +1124,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43305</v>
+        <v>43217</v>
       </c>
       <c r="C69" t="n">
-        <v>226.61</v>
+        <v>229.57</v>
       </c>
     </row>
     <row r="70">
@@ -1135,10 +1135,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43306</v>
+        <v>43220</v>
       </c>
       <c r="C70" t="n">
-        <v>227.39</v>
+        <v>228.16</v>
       </c>
     </row>
     <row r="71">
@@ -1146,10 +1146,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43307</v>
+        <v>43221</v>
       </c>
       <c r="C71" t="n">
-        <v>227.79</v>
+        <v>226.57</v>
       </c>
     </row>
     <row r="72">
@@ -1157,10 +1157,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43308</v>
+        <v>43222</v>
       </c>
       <c r="C72" t="n">
-        <v>228.3</v>
+        <v>224.06</v>
       </c>
     </row>
     <row r="73">
@@ -1168,10 +1168,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43311</v>
+        <v>43223</v>
       </c>
       <c r="C73" t="n">
-        <v>229.56</v>
+        <v>223.45</v>
       </c>
     </row>
     <row r="74">
@@ -1179,10 +1179,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43312</v>
+        <v>43224</v>
       </c>
       <c r="C74" t="n">
-        <v>228.1</v>
+        <v>224.91</v>
       </c>
     </row>
     <row r="75">
@@ -1190,10 +1190,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43313</v>
+        <v>43227</v>
       </c>
       <c r="C75" t="n">
-        <v>226.77</v>
+        <v>227.08</v>
       </c>
     </row>
     <row r="76">
@@ -1201,10 +1201,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43314</v>
+        <v>43228</v>
       </c>
       <c r="C76" t="n">
-        <v>224.8</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="77">
@@ -1212,10 +1212,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43315</v>
+        <v>43229</v>
       </c>
       <c r="C77" t="n">
-        <v>224.89</v>
+        <v>231.41</v>
       </c>
     </row>
     <row r="78">
@@ -1223,10 +1223,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43318</v>
+        <v>43230</v>
       </c>
       <c r="C78" t="n">
-        <v>226.66</v>
+        <v>233.05</v>
       </c>
     </row>
     <row r="79">
@@ -1234,10 +1234,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43319</v>
+        <v>43231</v>
       </c>
       <c r="C79" t="n">
-        <v>228.49</v>
+        <v>232.55</v>
       </c>
     </row>
     <row r="80">
@@ -1245,10 +1245,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43320</v>
+        <v>43234</v>
       </c>
       <c r="C80" t="n">
-        <v>227.08</v>
+        <v>233.5</v>
       </c>
     </row>
     <row r="81">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43321</v>
+        <v>43235</v>
       </c>
       <c r="C81" t="n">
-        <v>224.6</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="82">
@@ -1267,10 +1267,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43322</v>
+        <v>43236</v>
       </c>
       <c r="C82" t="n">
-        <v>220.59</v>
+        <v>230.68</v>
       </c>
     </row>
     <row r="83">
@@ -1278,10 +1278,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43325</v>
+        <v>43237</v>
       </c>
       <c r="C83" t="n">
-        <v>217.95</v>
+        <v>228.9</v>
       </c>
     </row>
     <row r="84">
@@ -1289,10 +1289,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43326</v>
+        <v>43238</v>
       </c>
       <c r="C84" t="n">
-        <v>220.54</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="85">
@@ -1300,10 +1300,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43327</v>
+        <v>43241</v>
       </c>
       <c r="C85" t="n">
-        <v>220.24</v>
+        <v>227.56</v>
       </c>
     </row>
     <row r="86">
@@ -1311,10 +1311,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43328</v>
+        <v>43242</v>
       </c>
       <c r="C86" t="n">
-        <v>223.85</v>
+        <v>227.84</v>
       </c>
     </row>
     <row r="87">
@@ -1322,10 +1322,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43329</v>
+        <v>43243</v>
       </c>
       <c r="C87" t="n">
-        <v>224.21</v>
+        <v>227.66</v>
       </c>
     </row>
     <row r="88">
@@ -1333,10 +1333,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43332</v>
+        <v>43244</v>
       </c>
       <c r="C88" t="n">
-        <v>226.52</v>
+        <v>226.02</v>
       </c>
     </row>
     <row r="89">
@@ -1344,10 +1344,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43333</v>
+        <v>43245</v>
       </c>
       <c r="C89" t="n">
-        <v>229.27</v>
+        <v>224.98</v>
       </c>
     </row>
     <row r="90">
@@ -1355,10 +1355,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43334</v>
+        <v>43249</v>
       </c>
       <c r="C90" t="n">
-        <v>229.94</v>
+        <v>217.34</v>
       </c>
     </row>
     <row r="91">
@@ -1366,10 +1366,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43335</v>
+        <v>43250</v>
       </c>
       <c r="C91" t="n">
-        <v>227.05</v>
+        <v>220.16</v>
       </c>
     </row>
     <row r="92">
@@ -1377,10 +1377,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43336</v>
+        <v>43251</v>
       </c>
       <c r="C92" t="n">
-        <v>225.87</v>
+        <v>217.01</v>
       </c>
     </row>
     <row r="93">
@@ -1388,10 +1388,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43339</v>
+        <v>43252</v>
       </c>
       <c r="C93" t="n">
-        <v>233.07</v>
+        <v>219.38</v>
       </c>
     </row>
     <row r="94">
@@ -1399,10 +1399,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43340</v>
+        <v>43255</v>
       </c>
       <c r="C94" t="n">
-        <v>232.85</v>
+        <v>220.86</v>
       </c>
     </row>
     <row r="95">
@@ -1410,10 +1410,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43341</v>
+        <v>43256</v>
       </c>
       <c r="C95" t="n">
-        <v>232.68</v>
+        <v>219.37</v>
       </c>
     </row>
     <row r="96">
@@ -1421,10 +1421,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43342</v>
+        <v>43257</v>
       </c>
       <c r="C96" t="n">
-        <v>230.76</v>
+        <v>223.11</v>
       </c>
     </row>
     <row r="97">
@@ -1432,10 +1432,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43343</v>
+        <v>43258</v>
       </c>
       <c r="C97" t="n">
-        <v>229.22</v>
+        <v>224.28</v>
       </c>
     </row>
     <row r="98">
@@ -1443,10 +1443,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43347</v>
+        <v>43259</v>
       </c>
       <c r="C98" t="n">
-        <v>229.08</v>
+        <v>224.22</v>
       </c>
     </row>
     <row r="99">
@@ -1454,10 +1454,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43348</v>
+        <v>43262</v>
       </c>
       <c r="C99" t="n">
-        <v>228.98</v>
+        <v>224.89</v>
       </c>
     </row>
     <row r="100">
@@ -1465,10 +1465,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43349</v>
+        <v>43263</v>
       </c>
       <c r="C100" t="n">
-        <v>226.05</v>
+        <v>223.49</v>
       </c>
     </row>
     <row r="101">
@@ -1476,10 +1476,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43350</v>
+        <v>43264</v>
       </c>
       <c r="C101" t="n">
-        <v>225.46</v>
+        <v>224.64</v>
       </c>
     </row>
     <row r="102">
@@ -1487,10 +1487,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43353</v>
+        <v>43265</v>
       </c>
       <c r="C102" t="n">
-        <v>223.54</v>
+        <v>224.47</v>
       </c>
     </row>
     <row r="103">
@@ -1498,10 +1498,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43354</v>
+        <v>43266</v>
       </c>
       <c r="C103" t="n">
-        <v>221.9</v>
+        <v>222.81</v>
       </c>
     </row>
     <row r="104">
@@ -1509,10 +1509,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43355</v>
+        <v>43269</v>
       </c>
       <c r="C104" t="n">
-        <v>219.91</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="105">
@@ -1520,10 +1520,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43356</v>
+        <v>43270</v>
       </c>
       <c r="C105" t="n">
-        <v>220.09</v>
+        <v>219.35</v>
       </c>
     </row>
     <row r="106">
@@ -1531,10 +1531,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43357</v>
+        <v>43271</v>
       </c>
       <c r="C106" t="n">
-        <v>220.96</v>
+        <v>218.87</v>
       </c>
     </row>
     <row r="107">
@@ -1542,10 +1542,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43360</v>
+        <v>43272</v>
       </c>
       <c r="C107" t="n">
-        <v>219.66</v>
+        <v>218.06</v>
       </c>
     </row>
     <row r="108">
@@ -1553,10 +1553,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43361</v>
+        <v>43273</v>
       </c>
       <c r="C108" t="n">
-        <v>220.63</v>
+        <v>217.14</v>
       </c>
     </row>
     <row r="109">
@@ -1564,10 +1564,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43362</v>
+        <v>43276</v>
       </c>
       <c r="C109" t="n">
-        <v>227.07</v>
+        <v>212.84</v>
       </c>
     </row>
     <row r="110">
@@ -1575,10 +1575,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43363</v>
+        <v>43277</v>
       </c>
       <c r="C110" t="n">
-        <v>228.83</v>
+        <v>212.87</v>
       </c>
     </row>
     <row r="111">
@@ -1586,10 +1586,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43364</v>
+        <v>43278</v>
       </c>
       <c r="C111" t="n">
-        <v>226.84</v>
+        <v>211.53</v>
       </c>
     </row>
     <row r="112">
@@ -1597,10 +1597,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>43367</v>
+        <v>43279</v>
       </c>
       <c r="C112" t="n">
-        <v>224.49</v>
+        <v>214.64</v>
       </c>
     </row>
     <row r="113">
@@ -1608,10 +1608,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>43368</v>
+        <v>43280</v>
       </c>
       <c r="C113" t="n">
-        <v>224.11</v>
+        <v>211.9</v>
       </c>
     </row>
     <row r="114">
@@ -1619,10 +1619,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>43369</v>
+        <v>43283</v>
       </c>
       <c r="C114" t="n">
-        <v>220.62</v>
+        <v>214.49</v>
       </c>
     </row>
     <row r="115">
@@ -1630,10 +1630,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>43370</v>
+        <v>43284</v>
       </c>
       <c r="C115" t="n">
-        <v>219.52</v>
+        <v>211.72</v>
       </c>
     </row>
     <row r="116">
@@ -1641,10 +1641,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>43371</v>
+        <v>43286</v>
       </c>
       <c r="C116" t="n">
-        <v>216.14</v>
+        <v>212.07</v>
       </c>
     </row>
     <row r="117">
@@ -1652,10 +1652,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>43374</v>
+        <v>43287</v>
       </c>
       <c r="C117" t="n">
-        <v>217.19</v>
+        <v>213.08</v>
       </c>
     </row>
     <row r="118">
@@ -1663,10 +1663,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>43375</v>
+        <v>43290</v>
       </c>
       <c r="C118" t="n">
-        <v>217.91</v>
+        <v>219.03</v>
       </c>
     </row>
     <row r="119">
@@ -1674,10 +1674,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>43376</v>
+        <v>43291</v>
       </c>
       <c r="C119" t="n">
-        <v>219.56</v>
+        <v>217.94</v>
       </c>
     </row>
     <row r="120">
@@ -1685,10 +1685,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>43377</v>
+        <v>43292</v>
       </c>
       <c r="C120" t="n">
-        <v>219.27</v>
+        <v>216.79</v>
       </c>
     </row>
     <row r="121">
@@ -1696,10 +1696,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>43378</v>
+        <v>43293</v>
       </c>
       <c r="C121" t="n">
-        <v>217.56</v>
+        <v>218.29</v>
       </c>
     </row>
     <row r="122">
@@ -1707,10 +1707,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>43381</v>
+        <v>43294</v>
       </c>
       <c r="C122" t="n">
-        <v>217.21</v>
+        <v>217.51</v>
       </c>
     </row>
     <row r="123">
@@ -1718,10 +1718,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>43382</v>
+        <v>43297</v>
       </c>
       <c r="C123" t="n">
-        <v>214.86</v>
+        <v>222.35</v>
       </c>
     </row>
     <row r="124">
@@ -1729,10 +1729,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>43383</v>
+        <v>43298</v>
       </c>
       <c r="C124" t="n">
-        <v>207.13</v>
+        <v>221.94</v>
       </c>
     </row>
     <row r="125">
@@ -1740,10 +1740,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>43384</v>
+        <v>43299</v>
       </c>
       <c r="C125" t="n">
-        <v>205.28</v>
+        <v>222.15</v>
       </c>
     </row>
     <row r="126">
@@ -1751,10 +1751,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>43385</v>
+        <v>43300</v>
       </c>
       <c r="C126" t="n">
-        <v>206.15</v>
+        <v>220.61</v>
       </c>
     </row>
     <row r="127">
@@ -1762,10 +1762,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>43388</v>
+        <v>43301</v>
       </c>
       <c r="C127" t="n">
-        <v>207.45</v>
+        <v>222.59</v>
       </c>
     </row>
     <row r="128">
@@ -1773,10 +1773,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>43389</v>
+        <v>43304</v>
       </c>
       <c r="C128" t="n">
-        <v>213.7</v>
+        <v>224.58</v>
       </c>
     </row>
     <row r="129">
@@ -1784,10 +1784,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>43390</v>
+        <v>43305</v>
       </c>
       <c r="C129" t="n">
-        <v>220.04</v>
+        <v>226.61</v>
       </c>
     </row>
     <row r="130">
@@ -1795,10 +1795,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>43391</v>
+        <v>43306</v>
       </c>
       <c r="C130" t="n">
-        <v>216.83</v>
+        <v>227.39</v>
       </c>
     </row>
     <row r="131">
@@ -1806,10 +1806,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>43392</v>
+        <v>43307</v>
       </c>
       <c r="C131" t="n">
-        <v>218.77</v>
+        <v>227.79</v>
       </c>
     </row>
     <row r="132">
@@ -1817,10 +1817,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>43395</v>
+        <v>43308</v>
       </c>
       <c r="C132" t="n">
-        <v>213.6</v>
+        <v>228.3</v>
       </c>
     </row>
     <row r="133">
@@ -1828,10 +1828,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>43396</v>
+        <v>43311</v>
       </c>
       <c r="C133" t="n">
-        <v>210.67</v>
+        <v>229.56</v>
       </c>
     </row>
     <row r="134">
@@ -1839,10 +1839,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>43397</v>
+        <v>43312</v>
       </c>
       <c r="C134" t="n">
-        <v>201.63</v>
+        <v>228.1</v>
       </c>
     </row>
     <row r="135">
@@ -1850,10 +1850,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>43398</v>
+        <v>43313</v>
       </c>
       <c r="C135" t="n">
-        <v>206.28</v>
+        <v>226.77</v>
       </c>
     </row>
     <row r="136">
@@ -1861,10 +1861,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>43399</v>
+        <v>43314</v>
       </c>
       <c r="C136" t="n">
-        <v>204.69</v>
+        <v>224.8</v>
       </c>
     </row>
     <row r="137">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>43402</v>
+        <v>43315</v>
       </c>
       <c r="C137" t="n">
-        <v>206.75</v>
+        <v>224.89</v>
       </c>
     </row>
     <row r="138">
@@ -1883,10 +1883,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>43403</v>
+        <v>43318</v>
       </c>
       <c r="C138" t="n">
-        <v>211.36</v>
+        <v>226.66</v>
       </c>
     </row>
     <row r="139">
@@ -1894,10 +1894,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>43404</v>
+        <v>43319</v>
       </c>
       <c r="C139" t="n">
-        <v>217.23</v>
+        <v>228.49</v>
       </c>
     </row>
     <row r="140">
@@ -1905,10 +1905,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>43405</v>
+        <v>43320</v>
       </c>
       <c r="C140" t="n">
-        <v>218.77</v>
+        <v>227.08</v>
       </c>
     </row>
     <row r="141">
@@ -1916,10 +1916,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>43406</v>
+        <v>43321</v>
       </c>
       <c r="C141" t="n">
-        <v>221.4</v>
+        <v>224.6</v>
       </c>
     </row>
     <row r="142">
@@ -1927,10 +1927,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>43409</v>
+        <v>43322</v>
       </c>
       <c r="C142" t="n">
-        <v>220.46</v>
+        <v>220.59</v>
       </c>
     </row>
     <row r="143">
@@ -1938,10 +1938,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>43410</v>
+        <v>43325</v>
       </c>
       <c r="C143" t="n">
-        <v>219.96</v>
+        <v>217.95</v>
       </c>
     </row>
     <row r="144">
@@ -1949,10 +1949,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>43411</v>
+        <v>43326</v>
       </c>
       <c r="C144" t="n">
-        <v>222.93</v>
+        <v>220.54</v>
       </c>
     </row>
     <row r="145">
@@ -1960,10 +1960,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>43412</v>
+        <v>43327</v>
       </c>
       <c r="C145" t="n">
-        <v>223.29</v>
+        <v>220.24</v>
       </c>
     </row>
     <row r="146">
@@ -1971,10 +1971,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>43413</v>
+        <v>43328</v>
       </c>
       <c r="C146" t="n">
-        <v>214.61</v>
+        <v>223.85</v>
       </c>
     </row>
     <row r="147">
@@ -1982,10 +1982,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>43416</v>
+        <v>43329</v>
       </c>
       <c r="C147" t="n">
-        <v>198.61</v>
+        <v>224.21</v>
       </c>
     </row>
     <row r="148">
@@ -1993,10 +1993,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>43417</v>
+        <v>43332</v>
       </c>
       <c r="C148" t="n">
-        <v>197.65</v>
+        <v>226.52</v>
       </c>
     </row>
     <row r="149">
@@ -2004,10 +2004,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>43418</v>
+        <v>43333</v>
       </c>
       <c r="C149" t="n">
-        <v>195.18</v>
+        <v>229.27</v>
       </c>
     </row>
     <row r="150">
@@ -2015,10 +2015,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>43419</v>
+        <v>43334</v>
       </c>
       <c r="C150" t="n">
-        <v>196.38</v>
+        <v>229.94</v>
       </c>
     </row>
     <row r="151">
@@ -2026,10 +2026,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>43420</v>
+        <v>43335</v>
       </c>
       <c r="C151" t="n">
-        <v>194.82</v>
+        <v>227.05</v>
       </c>
     </row>
     <row r="152">
@@ -2037,10 +2037,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>43423</v>
+        <v>43336</v>
       </c>
       <c r="C152" t="n">
-        <v>191.06</v>
+        <v>225.87</v>
       </c>
     </row>
     <row r="153">
@@ -2048,10 +2048,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>43424</v>
+        <v>43339</v>
       </c>
       <c r="C153" t="n">
-        <v>184.43</v>
+        <v>233.07</v>
       </c>
     </row>
     <row r="154">
@@ -2059,10 +2059,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>43425</v>
+        <v>43340</v>
       </c>
       <c r="C154" t="n">
-        <v>185.65</v>
+        <v>232.85</v>
       </c>
     </row>
     <row r="155">
@@ -2070,10 +2070,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>43427</v>
+        <v>43341</v>
       </c>
       <c r="C155" t="n">
-        <v>182.27</v>
+        <v>232.68</v>
       </c>
     </row>
     <row r="156">
@@ -2081,10 +2081,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>43430</v>
+        <v>43342</v>
       </c>
       <c r="C156" t="n">
-        <v>187.32</v>
+        <v>230.76</v>
       </c>
     </row>
     <row r="157">
@@ -2092,10 +2092,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>43431</v>
+        <v>43343</v>
       </c>
       <c r="C157" t="n">
-        <v>186.66</v>
+        <v>229.22</v>
       </c>
     </row>
     <row r="158">
@@ -2103,10 +2103,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>43432</v>
+        <v>43347</v>
       </c>
       <c r="C158" t="n">
-        <v>191.19</v>
+        <v>229.08</v>
       </c>
     </row>
     <row r="159">
@@ -2114,10 +2114,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>43433</v>
+        <v>43348</v>
       </c>
       <c r="C159" t="n">
-        <v>188.58</v>
+        <v>228.98</v>
       </c>
     </row>
     <row r="160">
@@ -2125,10 +2125,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>43434</v>
+        <v>43349</v>
       </c>
       <c r="C160" t="n">
-        <v>184.55</v>
+        <v>226.05</v>
       </c>
     </row>
     <row r="161">
@@ -2136,10 +2136,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>43437</v>
+        <v>43350</v>
       </c>
       <c r="C161" t="n">
-        <v>185.46</v>
+        <v>225.46</v>
       </c>
     </row>
     <row r="162">
@@ -2147,10 +2147,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>43438</v>
+        <v>43353</v>
       </c>
       <c r="C162" t="n">
-        <v>178.37</v>
+        <v>223.54</v>
       </c>
     </row>
     <row r="163">
@@ -2158,10 +2158,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>43440</v>
+        <v>43354</v>
       </c>
       <c r="C163" t="n">
-        <v>178.16</v>
+        <v>221.9</v>
       </c>
     </row>
     <row r="164">
@@ -2169,10 +2169,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>43441</v>
+        <v>43355</v>
       </c>
       <c r="C164" t="n">
-        <v>173.88</v>
+        <v>219.91</v>
       </c>
     </row>
     <row r="165">
@@ -2180,10 +2180,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>43444</v>
+        <v>43356</v>
       </c>
       <c r="C165" t="n">
-        <v>173.07</v>
+        <v>220.09</v>
       </c>
     </row>
     <row r="166">
@@ -2191,10 +2191,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>43445</v>
+        <v>43357</v>
       </c>
       <c r="C166" t="n">
-        <v>171.11</v>
+        <v>220.96</v>
       </c>
     </row>
     <row r="167">
@@ -2202,10 +2202,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>43446</v>
+        <v>43360</v>
       </c>
       <c r="C167" t="n">
-        <v>171.01</v>
+        <v>219.66</v>
       </c>
     </row>
     <row r="168">
@@ -2213,10 +2213,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>43447</v>
+        <v>43361</v>
       </c>
       <c r="C168" t="n">
-        <v>170.25</v>
+        <v>220.63</v>
       </c>
     </row>
     <row r="169">
@@ -2224,10 +2224,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>43448</v>
+        <v>43362</v>
       </c>
       <c r="C169" t="n">
-        <v>167.21</v>
+        <v>227.07</v>
       </c>
     </row>
     <row r="170">
@@ -2235,10 +2235,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>43451</v>
+        <v>43363</v>
       </c>
       <c r="C170" t="n">
-        <v>162.6</v>
+        <v>228.83</v>
       </c>
     </row>
     <row r="171">
@@ -2246,10 +2246,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>43452</v>
+        <v>43364</v>
       </c>
       <c r="C171" t="n">
-        <v>165.98</v>
+        <v>226.84</v>
       </c>
     </row>
     <row r="172">
@@ -2257,10 +2257,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>43453</v>
+        <v>43367</v>
       </c>
       <c r="C172" t="n">
-        <v>163.8</v>
+        <v>224.49</v>
       </c>
     </row>
     <row r="173">
@@ -2268,10 +2268,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>43454</v>
+        <v>43368</v>
       </c>
       <c r="C173" t="n">
-        <v>162.99</v>
+        <v>224.11</v>
       </c>
     </row>
     <row r="174">
@@ -2279,10 +2279,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>43455</v>
+        <v>43369</v>
       </c>
       <c r="C174" t="n">
-        <v>154.9</v>
+        <v>220.62</v>
       </c>
     </row>
     <row r="175">
@@ -2290,10 +2290,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>43458</v>
+        <v>43370</v>
       </c>
       <c r="C175" t="n">
-        <v>151.32</v>
+        <v>219.52</v>
       </c>
     </row>
     <row r="176">
@@ -2301,10 +2301,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>43460</v>
+        <v>43371</v>
       </c>
       <c r="C176" t="n">
-        <v>157.68</v>
+        <v>216.14</v>
       </c>
     </row>
     <row r="177">
@@ -2312,10 +2312,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>43461</v>
+        <v>43374</v>
       </c>
       <c r="C177" t="n">
-        <v>160.08</v>
+        <v>217.19</v>
       </c>
     </row>
     <row r="178">
@@ -2323,10 +2323,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>43462</v>
+        <v>43375</v>
       </c>
       <c r="C178" t="n">
-        <v>157.78</v>
+        <v>217.91</v>
       </c>
     </row>
     <row r="179">
@@ -2334,10 +2334,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>43465</v>
+        <v>43376</v>
       </c>
       <c r="C179" t="n">
-        <v>161.67</v>
+        <v>219.56</v>
       </c>
     </row>
     <row r="180">
@@ -2345,10 +2345,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>43467</v>
+        <v>43377</v>
       </c>
       <c r="C180" t="n">
-        <v>166.49</v>
+        <v>219.27</v>
       </c>
     </row>
     <row r="181">
@@ -2356,10 +2356,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>43468</v>
+        <v>43378</v>
       </c>
       <c r="C181" t="n">
-        <v>164.05</v>
+        <v>217.56</v>
       </c>
     </row>
     <row r="182">
@@ -2367,10 +2367,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>43469</v>
+        <v>43381</v>
       </c>
       <c r="C182" t="n">
-        <v>169.41</v>
+        <v>217.21</v>
       </c>
     </row>
     <row r="183">
@@ -2378,10 +2378,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>43472</v>
+        <v>43382</v>
       </c>
       <c r="C183" t="n">
-        <v>170.35</v>
+        <v>214.86</v>
       </c>
     </row>
     <row r="184">
@@ -2389,10 +2389,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>43473</v>
+        <v>43383</v>
       </c>
       <c r="C184" t="n">
-        <v>169.72</v>
+        <v>207.13</v>
       </c>
     </row>
     <row r="185">
@@ -2400,10 +2400,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>43474</v>
+        <v>43384</v>
       </c>
       <c r="C185" t="n">
-        <v>170.79</v>
+        <v>205.28</v>
       </c>
     </row>
     <row r="186">
@@ -2411,10 +2411,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>43475</v>
+        <v>43385</v>
       </c>
       <c r="C186" t="n">
-        <v>170.33</v>
+        <v>206.15</v>
       </c>
     </row>
     <row r="187">
@@ -2422,10 +2422,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>43476</v>
+        <v>43388</v>
       </c>
       <c r="C187" t="n">
-        <v>171.23</v>
+        <v>207.45</v>
       </c>
     </row>
     <row r="188">
@@ -2433,10 +2433,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>43479</v>
+        <v>43389</v>
       </c>
       <c r="C188" t="n">
-        <v>172.96</v>
+        <v>213.7</v>
       </c>
     </row>
     <row r="189">
@@ -2444,10 +2444,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>43480</v>
+        <v>43390</v>
       </c>
       <c r="C189" t="n">
-        <v>174.12</v>
+        <v>220.04</v>
       </c>
     </row>
     <row r="190">
@@ -2455,10 +2455,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>43481</v>
+        <v>43391</v>
       </c>
       <c r="C190" t="n">
-        <v>190.73</v>
+        <v>216.83</v>
       </c>
     </row>
     <row r="191">
@@ -2466,10 +2466,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>43482</v>
+        <v>43392</v>
       </c>
       <c r="C191" t="n">
-        <v>192.68</v>
+        <v>218.77</v>
       </c>
     </row>
     <row r="192">
@@ -2477,10 +2477,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>43483</v>
+        <v>43395</v>
       </c>
       <c r="C192" t="n">
-        <v>196.02</v>
+        <v>213.6</v>
       </c>
     </row>
     <row r="193">
@@ -2488,10 +2488,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>43487</v>
+        <v>43396</v>
       </c>
       <c r="C193" t="n">
-        <v>191.31</v>
+        <v>210.67</v>
       </c>
     </row>
     <row r="194">
@@ -2499,10 +2499,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>43488</v>
+        <v>43397</v>
       </c>
       <c r="C194" t="n">
-        <v>190.56</v>
+        <v>201.63</v>
       </c>
     </row>
     <row r="195">
@@ -2510,10 +2510,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>43489</v>
+        <v>43398</v>
       </c>
       <c r="C195" t="n">
-        <v>191.43</v>
+        <v>206.28</v>
       </c>
     </row>
     <row r="196">
@@ -2521,10 +2521,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>43490</v>
+        <v>43399</v>
       </c>
       <c r="C196" t="n">
-        <v>194.28</v>
+        <v>204.69</v>
       </c>
     </row>
     <row r="197">
@@ -2532,10 +2532,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>43493</v>
+        <v>43402</v>
       </c>
       <c r="C197" t="n">
-        <v>193.29</v>
+        <v>206.75</v>
       </c>
     </row>
     <row r="198">
@@ -2543,10 +2543,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>43494</v>
+        <v>43403</v>
       </c>
       <c r="C198" t="n">
-        <v>194.04</v>
+        <v>211.36</v>
       </c>
     </row>
     <row r="199">
@@ -2554,10 +2554,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>43495</v>
+        <v>43404</v>
       </c>
       <c r="C199" t="n">
-        <v>195.96</v>
+        <v>217.23</v>
       </c>
     </row>
     <row r="200">
@@ -2565,10 +2565,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>43496</v>
+        <v>43405</v>
       </c>
       <c r="C200" t="n">
-        <v>191.63</v>
+        <v>218.77</v>
       </c>
     </row>
     <row r="201">
@@ -2576,10 +2576,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>43497</v>
+        <v>43406</v>
       </c>
       <c r="C201" t="n">
-        <v>190.21</v>
+        <v>221.4</v>
       </c>
     </row>
     <row r="202">
@@ -2587,10 +2587,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>43500</v>
+        <v>43409</v>
       </c>
       <c r="C202" t="n">
-        <v>191.35</v>
+        <v>220.46</v>
       </c>
     </row>
     <row r="203">
@@ -2598,10 +2598,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>43501</v>
+        <v>43410</v>
       </c>
       <c r="C203" t="n">
-        <v>191.63</v>
+        <v>219.96</v>
       </c>
     </row>
     <row r="204">
@@ -2609,10 +2609,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>43502</v>
+        <v>43411</v>
       </c>
       <c r="C204" t="n">
-        <v>190.29</v>
+        <v>222.93</v>
       </c>
     </row>
     <row r="205">
@@ -2620,10 +2620,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>43503</v>
+        <v>43412</v>
       </c>
       <c r="C205" t="n">
-        <v>186.85</v>
+        <v>223.29</v>
       </c>
     </row>
     <row r="206">
@@ -2631,10 +2631,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>43504</v>
+        <v>43413</v>
       </c>
       <c r="C206" t="n">
-        <v>185.5</v>
+        <v>214.61</v>
       </c>
     </row>
     <row r="207">
@@ -2642,10 +2642,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>43507</v>
+        <v>43416</v>
       </c>
       <c r="C207" t="n">
-        <v>185.17</v>
+        <v>198.61</v>
       </c>
     </row>
     <row r="208">
@@ -2653,10 +2653,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>43508</v>
+        <v>43417</v>
       </c>
       <c r="C208" t="n">
-        <v>188.23</v>
+        <v>197.65</v>
       </c>
     </row>
     <row r="209">
@@ -2664,10 +2664,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>43509</v>
+        <v>43418</v>
       </c>
       <c r="C209" t="n">
-        <v>188.42</v>
+        <v>195.18</v>
       </c>
     </row>
     <row r="210">
@@ -2675,10 +2675,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>43510</v>
+        <v>43419</v>
       </c>
       <c r="C210" t="n">
-        <v>186.33</v>
+        <v>196.38</v>
       </c>
     </row>
     <row r="211">
@@ -2686,10 +2686,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>43511</v>
+        <v>43420</v>
       </c>
       <c r="C211" t="n">
-        <v>192.11</v>
+        <v>194.82</v>
       </c>
     </row>
     <row r="212">
@@ -2697,10 +2697,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>43515</v>
+        <v>43423</v>
       </c>
       <c r="C212" t="n">
-        <v>192.27</v>
+        <v>191.06</v>
       </c>
     </row>
     <row r="213">
@@ -2708,10 +2708,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>43516</v>
+        <v>43424</v>
       </c>
       <c r="C213" t="n">
-        <v>192.2</v>
+        <v>184.43</v>
       </c>
     </row>
     <row r="214">
@@ -2719,10 +2719,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>43517</v>
+        <v>43425</v>
       </c>
       <c r="C214" t="n">
-        <v>190.04</v>
+        <v>185.65</v>
       </c>
     </row>
     <row r="215">
@@ -2730,10 +2730,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>43518</v>
+        <v>43427</v>
       </c>
       <c r="C215" t="n">
-        <v>189.69</v>
+        <v>182.27</v>
       </c>
     </row>
     <row r="216">
@@ -2741,10 +2741,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>43521</v>
+        <v>43430</v>
       </c>
       <c r="C216" t="n">
-        <v>192.25</v>
+        <v>187.32</v>
       </c>
     </row>
     <row r="217">
@@ -2752,10 +2752,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>43522</v>
+        <v>43431</v>
       </c>
       <c r="C217" t="n">
-        <v>192.49</v>
+        <v>186.66</v>
       </c>
     </row>
     <row r="218">
@@ -2763,10 +2763,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>43523</v>
+        <v>43432</v>
       </c>
       <c r="C218" t="n">
-        <v>192.49</v>
+        <v>191.19</v>
       </c>
     </row>
     <row r="219">
@@ -2774,10 +2774,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>43524</v>
+        <v>43433</v>
       </c>
       <c r="C219" t="n">
-        <v>191.13</v>
+        <v>188.58</v>
       </c>
     </row>
     <row r="220">
@@ -2785,10 +2785,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>43525</v>
+        <v>43434</v>
       </c>
       <c r="C220" t="n">
-        <v>192.59</v>
+        <v>184.55</v>
       </c>
     </row>
     <row r="221">
@@ -2796,10 +2796,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>43528</v>
+        <v>43437</v>
       </c>
       <c r="C221" t="n">
-        <v>190.43</v>
+        <v>185.46</v>
       </c>
     </row>
     <row r="222">
@@ -2807,10 +2807,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>43529</v>
+        <v>43438</v>
       </c>
       <c r="C222" t="n">
-        <v>190.45</v>
+        <v>178.37</v>
       </c>
     </row>
     <row r="223">
@@ -2818,10 +2818,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>43530</v>
+        <v>43440</v>
       </c>
       <c r="C223" t="n">
-        <v>189.23</v>
+        <v>178.16</v>
       </c>
     </row>
     <row r="224">
@@ -2829,10 +2829,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>43531</v>
+        <v>43441</v>
       </c>
       <c r="C224" t="n">
-        <v>187.32</v>
+        <v>173.88</v>
       </c>
     </row>
     <row r="225">
@@ -2840,10 +2840,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>43532</v>
+        <v>43444</v>
       </c>
       <c r="C225" t="n">
-        <v>189.72</v>
+        <v>173.07</v>
       </c>
     </row>
     <row r="226">
@@ -2851,10 +2851,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>43535</v>
+        <v>43445</v>
       </c>
       <c r="C226" t="n">
-        <v>190.43</v>
+        <v>171.11</v>
       </c>
     </row>
     <row r="227">
@@ -2862,10 +2862,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>43536</v>
+        <v>43446</v>
       </c>
       <c r="C227" t="n">
-        <v>191.07</v>
+        <v>171.01</v>
       </c>
     </row>
     <row r="228">
@@ -2873,10 +2873,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>43537</v>
+        <v>43447</v>
       </c>
       <c r="C228" t="n">
-        <v>191.67</v>
+        <v>170.25</v>
       </c>
     </row>
     <row r="229">
@@ -2884,10 +2884,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>43538</v>
+        <v>43448</v>
       </c>
       <c r="C229" t="n">
-        <v>191.88</v>
+        <v>167.21</v>
       </c>
     </row>
     <row r="230">
@@ -2895,10 +2895,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>43539</v>
+        <v>43451</v>
       </c>
       <c r="C230" t="n">
-        <v>192.65</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="231">
@@ -2906,10 +2906,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>43542</v>
+        <v>43452</v>
       </c>
       <c r="C231" t="n">
-        <v>196.74</v>
+        <v>165.98</v>
       </c>
     </row>
     <row r="232">
@@ -2917,10 +2917,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>43543</v>
+        <v>43453</v>
       </c>
       <c r="C232" t="n">
-        <v>195.43</v>
+        <v>163.8</v>
       </c>
     </row>
     <row r="233">
@@ -2928,10 +2928,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>43544</v>
+        <v>43454</v>
       </c>
       <c r="C233" t="n">
-        <v>188.82</v>
+        <v>162.99</v>
       </c>
     </row>
     <row r="234">
@@ -2939,10 +2939,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>43545</v>
+        <v>43455</v>
       </c>
       <c r="C234" t="n">
-        <v>189.07</v>
+        <v>154.9</v>
       </c>
     </row>
     <row r="235">
@@ -2950,10 +2950,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>43546</v>
+        <v>43458</v>
       </c>
       <c r="C235" t="n">
-        <v>183.61</v>
+        <v>151.32</v>
       </c>
     </row>
     <row r="236">
@@ -2961,10 +2961,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>43549</v>
+        <v>43460</v>
       </c>
       <c r="C236" t="n">
-        <v>183.18</v>
+        <v>157.68</v>
       </c>
     </row>
     <row r="237">
@@ -2972,10 +2972,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>43550</v>
+        <v>43461</v>
       </c>
       <c r="C237" t="n">
-        <v>185.29</v>
+        <v>160.08</v>
       </c>
     </row>
     <row r="238">
@@ -2983,10 +2983,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>43551</v>
+        <v>43462</v>
       </c>
       <c r="C238" t="n">
-        <v>184.65</v>
+        <v>157.78</v>
       </c>
     </row>
     <row r="239">
@@ -2994,10 +2994,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>43552</v>
+        <v>43465</v>
       </c>
       <c r="C239" t="n">
-        <v>185.77</v>
+        <v>161.67</v>
       </c>
     </row>
     <row r="240">
@@ -3005,10 +3005,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>43553</v>
+        <v>43467</v>
       </c>
       <c r="C240" t="n">
-        <v>186.56</v>
+        <v>166.49</v>
       </c>
     </row>
     <row r="241">
@@ -3016,10 +3016,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>43556</v>
+        <v>43468</v>
       </c>
       <c r="C241" t="n">
-        <v>191.17</v>
+        <v>164.05</v>
       </c>
     </row>
     <row r="242">
@@ -3027,10 +3027,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>43557</v>
+        <v>43469</v>
       </c>
       <c r="C242" t="n">
-        <v>191.91</v>
+        <v>169.41</v>
       </c>
     </row>
     <row r="243">
@@ -3038,10 +3038,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>43558</v>
+        <v>43472</v>
       </c>
       <c r="C243" t="n">
-        <v>195.18</v>
+        <v>170.35</v>
       </c>
     </row>
     <row r="244">
@@ -3049,10 +3049,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>43559</v>
+        <v>43473</v>
       </c>
       <c r="C244" t="n">
-        <v>196.51</v>
+        <v>169.72</v>
       </c>
     </row>
     <row r="245">
@@ -3060,10 +3060,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>43560</v>
+        <v>43474</v>
       </c>
       <c r="C245" t="n">
-        <v>196.65</v>
+        <v>170.79</v>
       </c>
     </row>
     <row r="246">
@@ -3071,10 +3071,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>43563</v>
+        <v>43475</v>
       </c>
       <c r="C246" t="n">
-        <v>196.81</v>
+        <v>170.33</v>
       </c>
     </row>
     <row r="247">
@@ -3082,10 +3082,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>43564</v>
+        <v>43476</v>
       </c>
       <c r="C247" t="n">
-        <v>194.94</v>
+        <v>171.23</v>
       </c>
     </row>
     <row r="248">
@@ -3093,10 +3093,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>43565</v>
+        <v>43479</v>
       </c>
       <c r="C248" t="n">
-        <v>197.24</v>
+        <v>172.96</v>
       </c>
     </row>
     <row r="249">
@@ -3104,10 +3104,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>43566</v>
+        <v>43480</v>
       </c>
       <c r="C249" t="n">
-        <v>197.09</v>
+        <v>174.12</v>
       </c>
     </row>
     <row r="250">
@@ -3115,10 +3115,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>43567</v>
+        <v>43481</v>
       </c>
       <c r="C250" t="n">
-        <v>201.96</v>
+        <v>190.73</v>
       </c>
     </row>
     <row r="251">
@@ -3126,10 +3126,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>43570</v>
+        <v>43482</v>
       </c>
       <c r="C251" t="n">
-        <v>194.25</v>
+        <v>192.68</v>
       </c>
     </row>
     <row r="252">
@@ -3137,10 +3137,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>43571</v>
+        <v>43483</v>
       </c>
       <c r="C252" t="n">
-        <v>196.13</v>
+        <v>196.02</v>
       </c>
     </row>
     <row r="253">
@@ -3148,10 +3148,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>43572</v>
+        <v>43487</v>
       </c>
       <c r="C253" t="n">
-        <v>202.02</v>
+        <v>191.31</v>
       </c>
     </row>
     <row r="254">
@@ -3159,10 +3159,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>43573</v>
+        <v>43488</v>
       </c>
       <c r="C254" t="n">
-        <v>200.08</v>
+        <v>190.56</v>
       </c>
     </row>
     <row r="255">
@@ -3170,10 +3170,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>43577</v>
+        <v>43489</v>
       </c>
       <c r="C255" t="n">
-        <v>198.81</v>
+        <v>191.43</v>
       </c>
     </row>
     <row r="256">
@@ -3181,10 +3181,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>43578</v>
+        <v>43490</v>
       </c>
       <c r="C256" t="n">
-        <v>198.36</v>
+        <v>194.28</v>
       </c>
     </row>
     <row r="257">
@@ -3192,10 +3192,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>43579</v>
+        <v>43493</v>
       </c>
       <c r="C257" t="n">
-        <v>194.87</v>
+        <v>193.29</v>
       </c>
     </row>
     <row r="258">
@@ -3203,10 +3203,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>43580</v>
+        <v>43494</v>
       </c>
       <c r="C258" t="n">
-        <v>195.7</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="259">
@@ -3214,10 +3214,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>43581</v>
+        <v>43495</v>
       </c>
       <c r="C259" t="n">
-        <v>197.33</v>
+        <v>195.96</v>
       </c>
     </row>
     <row r="260">
@@ -3225,10 +3225,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>43584</v>
+        <v>43496</v>
       </c>
       <c r="C260" t="n">
-        <v>201.07</v>
+        <v>191.63</v>
       </c>
     </row>
     <row r="261">
@@ -3236,10 +3236,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>43585</v>
+        <v>43497</v>
       </c>
       <c r="C261" t="n">
-        <v>200.09</v>
+        <v>190.21</v>
       </c>
     </row>
     <row r="262">
@@ -3247,10 +3247,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>43586</v>
+        <v>43500</v>
       </c>
       <c r="C262" t="n">
-        <v>198.94</v>
+        <v>191.35</v>
       </c>
     </row>
     <row r="263">
@@ -3258,10 +3258,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>43587</v>
+        <v>43501</v>
       </c>
       <c r="C263" t="n">
-        <v>199.19</v>
+        <v>191.63</v>
       </c>
     </row>
     <row r="264">
@@ -3269,10 +3269,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>43588</v>
+        <v>43502</v>
       </c>
       <c r="C264" t="n">
-        <v>201.65</v>
+        <v>190.29</v>
       </c>
     </row>
     <row r="265">
@@ -3280,10 +3280,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>43591</v>
+        <v>43503</v>
       </c>
       <c r="C265" t="n">
-        <v>200.59</v>
+        <v>186.85</v>
       </c>
     </row>
     <row r="266">
@@ -3291,10 +3291,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>43592</v>
+        <v>43504</v>
       </c>
       <c r="C266" t="n">
-        <v>196.9</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="267">
@@ -3302,10 +3302,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>43593</v>
+        <v>43507</v>
       </c>
       <c r="C267" t="n">
-        <v>195.26</v>
+        <v>185.17</v>
       </c>
     </row>
     <row r="268">
@@ -3313,10 +3313,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>43594</v>
+        <v>43508</v>
       </c>
       <c r="C268" t="n">
-        <v>195.92</v>
+        <v>188.23</v>
       </c>
     </row>
     <row r="269">
@@ -3324,10 +3324,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>43595</v>
+        <v>43509</v>
       </c>
       <c r="C269" t="n">
-        <v>196.33</v>
+        <v>188.42</v>
       </c>
     </row>
     <row r="270">
@@ -3335,10 +3335,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>43598</v>
+        <v>43510</v>
       </c>
       <c r="C270" t="n">
-        <v>189.45</v>
+        <v>186.33</v>
       </c>
     </row>
     <row r="271">
@@ -3346,10 +3346,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>43599</v>
+        <v>43511</v>
       </c>
       <c r="C271" t="n">
-        <v>190.73</v>
+        <v>192.11</v>
       </c>
     </row>
     <row r="272">
@@ -3357,10 +3357,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>43600</v>
+        <v>43515</v>
       </c>
       <c r="C272" t="n">
-        <v>190.84</v>
+        <v>192.27</v>
       </c>
     </row>
     <row r="273">
@@ -3368,10 +3368,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>43601</v>
+        <v>43516</v>
       </c>
       <c r="C273" t="n">
-        <v>193.51</v>
+        <v>192.2</v>
       </c>
     </row>
     <row r="274">
@@ -3379,10 +3379,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>43602</v>
+        <v>43517</v>
       </c>
       <c r="C274" t="n">
-        <v>191.84</v>
+        <v>190.04</v>
       </c>
     </row>
     <row r="275">
@@ -3390,10 +3390,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>43605</v>
+        <v>43518</v>
       </c>
       <c r="C275" t="n">
-        <v>191.66</v>
+        <v>189.69</v>
       </c>
     </row>
     <row r="276">
@@ -3401,10 +3401,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>43606</v>
+        <v>43521</v>
       </c>
       <c r="C276" t="n">
-        <v>193.48</v>
+        <v>192.25</v>
       </c>
     </row>
     <row r="277">
@@ -3412,10 +3412,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>43607</v>
+        <v>43522</v>
       </c>
       <c r="C277" t="n">
-        <v>189.99</v>
+        <v>192.49</v>
       </c>
     </row>
     <row r="278">
@@ -3423,10 +3423,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>43608</v>
+        <v>43523</v>
       </c>
       <c r="C278" t="n">
-        <v>186.54</v>
+        <v>192.49</v>
       </c>
     </row>
     <row r="279">
@@ -3434,10 +3434,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>43609</v>
+        <v>43524</v>
       </c>
       <c r="C279" t="n">
-        <v>187.54</v>
+        <v>191.13</v>
       </c>
     </row>
     <row r="280">
@@ -3445,10 +3445,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>43613</v>
+        <v>43525</v>
       </c>
       <c r="C280" t="n">
-        <v>184.08</v>
+        <v>192.59</v>
       </c>
     </row>
     <row r="281">
@@ -3456,10 +3456,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>43614</v>
+        <v>43528</v>
       </c>
       <c r="C281" t="n">
-        <v>183.55</v>
+        <v>190.43</v>
       </c>
     </row>
     <row r="282">
@@ -3467,10 +3467,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>43615</v>
+        <v>43529</v>
       </c>
       <c r="C282" t="n">
-        <v>182.89</v>
+        <v>190.45</v>
       </c>
     </row>
     <row r="283">
@@ -3478,10 +3478,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>43616</v>
+        <v>43530</v>
       </c>
       <c r="C283" t="n">
-        <v>178.13</v>
+        <v>189.23</v>
       </c>
     </row>
     <row r="284">
@@ -3489,10 +3489,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>43619</v>
+        <v>43531</v>
       </c>
       <c r="C284" t="n">
-        <v>178.81</v>
+        <v>187.32</v>
       </c>
     </row>
     <row r="285">
@@ -3500,10 +3500,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>43620</v>
+        <v>43532</v>
       </c>
       <c r="C285" t="n">
-        <v>185.34</v>
+        <v>189.72</v>
       </c>
     </row>
     <row r="286">
@@ -3511,10 +3511,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>43621</v>
+        <v>43535</v>
       </c>
       <c r="C286" t="n">
-        <v>183.93</v>
+        <v>190.43</v>
       </c>
     </row>
     <row r="287">
@@ -3522,10 +3522,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>43622</v>
+        <v>43536</v>
       </c>
       <c r="C287" t="n">
-        <v>185.27</v>
+        <v>191.07</v>
       </c>
     </row>
     <row r="288">
@@ -3533,10 +3533,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>43623</v>
+        <v>43537</v>
       </c>
       <c r="C288" t="n">
-        <v>185.27</v>
+        <v>191.67</v>
       </c>
     </row>
     <row r="289">
@@ -3544,10 +3544,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>43626</v>
+        <v>43538</v>
       </c>
       <c r="C289" t="n">
-        <v>189.48</v>
+        <v>191.88</v>
       </c>
     </row>
     <row r="290">
@@ -3555,10 +3555,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>43627</v>
+        <v>43539</v>
       </c>
       <c r="C290" t="n">
-        <v>190.07</v>
+        <v>192.65</v>
       </c>
     </row>
     <row r="291">
@@ -3566,10 +3566,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43628</v>
+        <v>43542</v>
       </c>
       <c r="C291" t="n">
-        <v>185.67</v>
+        <v>196.74</v>
       </c>
     </row>
     <row r="292">
@@ -3577,10 +3577,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>43629</v>
+        <v>43543</v>
       </c>
       <c r="C292" t="n">
-        <v>186.87</v>
+        <v>195.43</v>
       </c>
     </row>
     <row r="293">
@@ -3588,10 +3588,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>43630</v>
+        <v>43544</v>
       </c>
       <c r="C293" t="n">
-        <v>187.08</v>
+        <v>188.82</v>
       </c>
     </row>
     <row r="294">
@@ -3599,10 +3599,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>43633</v>
+        <v>43545</v>
       </c>
       <c r="C294" t="n">
-        <v>186.27</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="295">
@@ -3610,10 +3610,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>43634</v>
+        <v>43546</v>
       </c>
       <c r="C295" t="n">
-        <v>190.32</v>
+        <v>183.61</v>
       </c>
     </row>
     <row r="296">
@@ -3621,10 +3621,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>43635</v>
+        <v>43549</v>
       </c>
       <c r="C296" t="n">
-        <v>190.96</v>
+        <v>183.18</v>
       </c>
     </row>
     <row r="297">
@@ -3632,10 +3632,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>43636</v>
+        <v>43550</v>
       </c>
       <c r="C297" t="n">
-        <v>191.02</v>
+        <v>185.29</v>
       </c>
     </row>
     <row r="298">
@@ -3643,10 +3643,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>43637</v>
+        <v>43551</v>
       </c>
       <c r="C298" t="n">
-        <v>191.25</v>
+        <v>184.65</v>
       </c>
     </row>
     <row r="299">
@@ -3654,10 +3654,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>43640</v>
+        <v>43552</v>
       </c>
       <c r="C299" t="n">
-        <v>192.77</v>
+        <v>185.77</v>
       </c>
     </row>
     <row r="300">
@@ -3665,10 +3665,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>43641</v>
+        <v>43553</v>
       </c>
       <c r="C300" t="n">
-        <v>191.37</v>
+        <v>186.56</v>
       </c>
     </row>
     <row r="301">
@@ -3676,10 +3676,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>43642</v>
+        <v>43556</v>
       </c>
       <c r="C301" t="n">
-        <v>192.3</v>
+        <v>191.17</v>
       </c>
     </row>
     <row r="302">
@@ -3687,10 +3687,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>43643</v>
+        <v>43557</v>
       </c>
       <c r="C302" t="n">
-        <v>194.55</v>
+        <v>191.91</v>
       </c>
     </row>
     <row r="303">
@@ -3698,10 +3698,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>43644</v>
+        <v>43558</v>
       </c>
       <c r="C303" t="n">
-        <v>199.71</v>
+        <v>195.18</v>
       </c>
     </row>
     <row r="304">
@@ -3709,10 +3709,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>43647</v>
+        <v>43559</v>
       </c>
       <c r="C304" t="n">
-        <v>201.91</v>
+        <v>196.51</v>
       </c>
     </row>
     <row r="305">
@@ -3720,10 +3720,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>43648</v>
+        <v>43560</v>
       </c>
       <c r="C305" t="n">
-        <v>201.05</v>
+        <v>196.65</v>
       </c>
     </row>
     <row r="306">
@@ -3731,10 +3731,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>43649</v>
+        <v>43563</v>
       </c>
       <c r="C306" t="n">
-        <v>201.11</v>
+        <v>196.81</v>
       </c>
     </row>
     <row r="307">
@@ -3742,10 +3742,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>43651</v>
+        <v>43564</v>
       </c>
       <c r="C307" t="n">
-        <v>202.93</v>
+        <v>194.94</v>
       </c>
     </row>
     <row r="308">
@@ -3753,10 +3753,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>43654</v>
+        <v>43565</v>
       </c>
       <c r="C308" t="n">
-        <v>200.83</v>
+        <v>197.24</v>
       </c>
     </row>
     <row r="309">
@@ -3764,10 +3764,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>43655</v>
+        <v>43566</v>
       </c>
       <c r="C309" t="n">
-        <v>202.8</v>
+        <v>197.09</v>
       </c>
     </row>
     <row r="310">
@@ -3775,10 +3775,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>43656</v>
+        <v>43567</v>
       </c>
       <c r="C310" t="n">
-        <v>201.04</v>
+        <v>201.96</v>
       </c>
     </row>
     <row r="311">
@@ -3786,10 +3786,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>43657</v>
+        <v>43570</v>
       </c>
       <c r="C311" t="n">
-        <v>206.3</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="312">
@@ -3797,10 +3797,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>43658</v>
+        <v>43571</v>
       </c>
       <c r="C312" t="n">
-        <v>208.82</v>
+        <v>196.13</v>
       </c>
     </row>
     <row r="313">
@@ -3808,10 +3808,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>43661</v>
+        <v>43572</v>
       </c>
       <c r="C313" t="n">
-        <v>206.52</v>
+        <v>202.02</v>
       </c>
     </row>
     <row r="314">
@@ -3819,10 +3819,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>43662</v>
+        <v>43573</v>
       </c>
       <c r="C314" t="n">
-        <v>210.37</v>
+        <v>200.08</v>
       </c>
     </row>
     <row r="315">
@@ -3830,10 +3830,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>43663</v>
+        <v>43577</v>
       </c>
       <c r="C315" t="n">
-        <v>208.2</v>
+        <v>198.81</v>
       </c>
     </row>
     <row r="316">
@@ -3841,10 +3841,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>43664</v>
+        <v>43578</v>
       </c>
       <c r="C316" t="n">
-        <v>209.39</v>
+        <v>198.36</v>
       </c>
     </row>
     <row r="317">
@@ -3852,10 +3852,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>43665</v>
+        <v>43579</v>
       </c>
       <c r="C317" t="n">
-        <v>208.41</v>
+        <v>194.87</v>
       </c>
     </row>
     <row r="318">
@@ -3863,10 +3863,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>43668</v>
+        <v>43580</v>
       </c>
       <c r="C318" t="n">
-        <v>208.88</v>
+        <v>195.7</v>
       </c>
     </row>
     <row r="319">
@@ -3874,10 +3874,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>43669</v>
+        <v>43581</v>
       </c>
       <c r="C319" t="n">
-        <v>214.18</v>
+        <v>197.33</v>
       </c>
     </row>
     <row r="320">
@@ -3885,10 +3885,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>43670</v>
+        <v>43584</v>
       </c>
       <c r="C320" t="n">
-        <v>216.72</v>
+        <v>201.07</v>
       </c>
     </row>
     <row r="321">
@@ -3896,10 +3896,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>43671</v>
+        <v>43585</v>
       </c>
       <c r="C321" t="n">
-        <v>214.72</v>
+        <v>200.09</v>
       </c>
     </row>
     <row r="322">
@@ -3907,10 +3907,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>43672</v>
+        <v>43586</v>
       </c>
       <c r="C322" t="n">
-        <v>216.83</v>
+        <v>198.94</v>
       </c>
     </row>
     <row r="323">
@@ -3918,10 +3918,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>43675</v>
+        <v>43587</v>
       </c>
       <c r="C323" t="n">
-        <v>215.05</v>
+        <v>199.19</v>
       </c>
     </row>
     <row r="324">
@@ -3929,10 +3929,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>43676</v>
+        <v>43588</v>
       </c>
       <c r="C324" t="n">
-        <v>216.11</v>
+        <v>201.65</v>
       </c>
     </row>
     <row r="325">
@@ -3940,10 +3940,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>43677</v>
+        <v>43591</v>
       </c>
       <c r="C325" t="n">
-        <v>214.87</v>
+        <v>200.59</v>
       </c>
     </row>
     <row r="326">
@@ -3951,10 +3951,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>43678</v>
+        <v>43592</v>
       </c>
       <c r="C326" t="n">
-        <v>206.54</v>
+        <v>196.9</v>
       </c>
     </row>
     <row r="327">
@@ -3962,10 +3962,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>43679</v>
+        <v>43593</v>
       </c>
       <c r="C327" t="n">
-        <v>204.36</v>
+        <v>195.26</v>
       </c>
     </row>
     <row r="328">
@@ -3973,10 +3973,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>43682</v>
+        <v>43594</v>
       </c>
       <c r="C328" t="n">
-        <v>196.86</v>
+        <v>195.92</v>
       </c>
     </row>
     <row r="329">
@@ -3984,10 +3984,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>43683</v>
+        <v>43595</v>
       </c>
       <c r="C329" t="n">
-        <v>201.08</v>
+        <v>196.33</v>
       </c>
     </row>
     <row r="330">
@@ -3995,10 +3995,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>43684</v>
+        <v>43598</v>
       </c>
       <c r="C330" t="n">
-        <v>200.82</v>
+        <v>189.45</v>
       </c>
     </row>
     <row r="331">
@@ -4006,10 +4006,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>43685</v>
+        <v>43599</v>
       </c>
       <c r="C331" t="n">
-        <v>202.05</v>
+        <v>190.73</v>
       </c>
     </row>
     <row r="332">
@@ -4017,10 +4017,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>43686</v>
+        <v>43600</v>
       </c>
       <c r="C332" t="n">
-        <v>201.95</v>
+        <v>190.84</v>
       </c>
     </row>
     <row r="333">
@@ -4028,10 +4028,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>43689</v>
+        <v>43601</v>
       </c>
       <c r="C333" t="n">
-        <v>196.7</v>
+        <v>193.51</v>
       </c>
     </row>
     <row r="334">
@@ -4039,10 +4039,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>43690</v>
+        <v>43602</v>
       </c>
       <c r="C334" t="n">
-        <v>199.23</v>
+        <v>191.84</v>
       </c>
     </row>
     <row r="335">
@@ -4050,10 +4050,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>43691</v>
+        <v>43605</v>
       </c>
       <c r="C335" t="n">
-        <v>190.88</v>
+        <v>191.66</v>
       </c>
     </row>
     <row r="336">
@@ -4061,10 +4061,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>43692</v>
+        <v>43606</v>
       </c>
       <c r="C336" t="n">
-        <v>191.49</v>
+        <v>193.48</v>
       </c>
     </row>
     <row r="337">
@@ -4072,10 +4072,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>43693</v>
+        <v>43607</v>
       </c>
       <c r="C337" t="n">
-        <v>194.65</v>
+        <v>189.99</v>
       </c>
     </row>
     <row r="338">
@@ -4083,10 +4083,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>43696</v>
+        <v>43608</v>
       </c>
       <c r="C338" t="n">
-        <v>197.36</v>
+        <v>186.54</v>
       </c>
     </row>
     <row r="339">
@@ -4094,10 +4094,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>43697</v>
+        <v>43609</v>
       </c>
       <c r="C339" t="n">
-        <v>195.2</v>
+        <v>187.54</v>
       </c>
     </row>
     <row r="340">
@@ -4105,10 +4105,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>43698</v>
+        <v>43613</v>
       </c>
       <c r="C340" t="n">
-        <v>195.88</v>
+        <v>184.08</v>
       </c>
     </row>
     <row r="341">
@@ -4116,10 +4116,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>43699</v>
+        <v>43614</v>
       </c>
       <c r="C341" t="n">
-        <v>197.58</v>
+        <v>183.55</v>
       </c>
     </row>
     <row r="342">
@@ -4127,10 +4127,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>43700</v>
+        <v>43615</v>
       </c>
       <c r="C342" t="n">
-        <v>191.51</v>
+        <v>182.89</v>
       </c>
     </row>
     <row r="343">
@@ -4138,10 +4138,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>43703</v>
+        <v>43616</v>
       </c>
       <c r="C343" t="n">
-        <v>194.88</v>
+        <v>178.13</v>
       </c>
     </row>
     <row r="344">
@@ -4149,10 +4149,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>43704</v>
+        <v>43619</v>
       </c>
       <c r="C344" t="n">
-        <v>193.33</v>
+        <v>178.81</v>
       </c>
     </row>
     <row r="345">
@@ -4160,10 +4160,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>43705</v>
+        <v>43620</v>
       </c>
       <c r="C345" t="n">
-        <v>195.63</v>
+        <v>185.34</v>
       </c>
     </row>
     <row r="346">
@@ -4171,10 +4171,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>43706</v>
+        <v>43621</v>
       </c>
       <c r="C346" t="n">
-        <v>199.82</v>
+        <v>183.93</v>
       </c>
     </row>
     <row r="347">
@@ -4182,10 +4182,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>43707</v>
+        <v>43622</v>
       </c>
       <c r="C347" t="n">
-        <v>200.28</v>
+        <v>185.27</v>
       </c>
     </row>
     <row r="348">
@@ -4193,10 +4193,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>43711</v>
+        <v>43623</v>
       </c>
       <c r="C348" t="n">
-        <v>195.43</v>
+        <v>185.27</v>
       </c>
     </row>
     <row r="349">
@@ -4204,10 +4204,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>43712</v>
+        <v>43626</v>
       </c>
       <c r="C349" t="n">
-        <v>198.14</v>
+        <v>189.48</v>
       </c>
     </row>
     <row r="350">
@@ -4215,10 +4215,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>43713</v>
+        <v>43627</v>
       </c>
       <c r="C350" t="n">
-        <v>203.37</v>
+        <v>190.07</v>
       </c>
     </row>
     <row r="351">
@@ -4226,10 +4226,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>43714</v>
+        <v>43628</v>
       </c>
       <c r="C351" t="n">
-        <v>203.52</v>
+        <v>185.67</v>
       </c>
     </row>
     <row r="352">
@@ -4237,10 +4237,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>43717</v>
+        <v>43629</v>
       </c>
       <c r="C352" t="n">
-        <v>208.21</v>
+        <v>186.87</v>
       </c>
     </row>
     <row r="353">
@@ -4248,10 +4248,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>43718</v>
+        <v>43630</v>
       </c>
       <c r="C353" t="n">
-        <v>211.79</v>
+        <v>187.08</v>
       </c>
     </row>
     <row r="354">
@@ -4259,10 +4259,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>43719</v>
+        <v>43633</v>
       </c>
       <c r="C354" t="n">
-        <v>212.94</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="355">
@@ -4270,10 +4270,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>43720</v>
+        <v>43634</v>
       </c>
       <c r="C355" t="n">
-        <v>214.85</v>
+        <v>190.32</v>
       </c>
     </row>
     <row r="356">
@@ -4281,10 +4281,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>43721</v>
+        <v>43635</v>
       </c>
       <c r="C356" t="n">
-        <v>215.99</v>
+        <v>190.96</v>
       </c>
     </row>
     <row r="357">
@@ -4292,10 +4292,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>43724</v>
+        <v>43636</v>
       </c>
       <c r="C357" t="n">
-        <v>213.36</v>
+        <v>191.02</v>
       </c>
     </row>
     <row r="358">
@@ -4303,10 +4303,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>43725</v>
+        <v>43637</v>
       </c>
       <c r="C358" t="n">
-        <v>212.07</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="359">
@@ -4314,10 +4314,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>43726</v>
+        <v>43640</v>
       </c>
       <c r="C359" t="n">
-        <v>213.22</v>
+        <v>192.77</v>
       </c>
     </row>
     <row r="360">
@@ -4325,10 +4325,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>43727</v>
+        <v>43641</v>
       </c>
       <c r="C360" t="n">
-        <v>211.4</v>
+        <v>191.37</v>
       </c>
     </row>
     <row r="361">
@@ -4336,10 +4336,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>43728</v>
+        <v>43642</v>
       </c>
       <c r="C361" t="n">
-        <v>209.94</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="362">
@@ -4347,10 +4347,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>43731</v>
+        <v>43643</v>
       </c>
       <c r="C362" t="n">
-        <v>209.66</v>
+        <v>194.55</v>
       </c>
     </row>
     <row r="363">
@@ -4358,10 +4358,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>43732</v>
+        <v>43644</v>
       </c>
       <c r="C363" t="n">
-        <v>204.05</v>
+        <v>199.71</v>
       </c>
     </row>
     <row r="364">
@@ -4369,10 +4369,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>43733</v>
+        <v>43647</v>
       </c>
       <c r="C364" t="n">
-        <v>206.29</v>
+        <v>201.91</v>
       </c>
     </row>
     <row r="365">
@@ -4380,10 +4380,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>43734</v>
+        <v>43648</v>
       </c>
       <c r="C365" t="n">
-        <v>204.52</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="366">
@@ -4391,10 +4391,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>43735</v>
+        <v>43649</v>
       </c>
       <c r="C366" t="n">
-        <v>205.25</v>
+        <v>201.11</v>
       </c>
     </row>
     <row r="367">
@@ -4402,10 +4402,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>43738</v>
+        <v>43651</v>
       </c>
       <c r="C367" t="n">
-        <v>203.54</v>
+        <v>202.93</v>
       </c>
     </row>
     <row r="368">
@@ -4413,10 +4413,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>43739</v>
+        <v>43654</v>
       </c>
       <c r="C368" t="n">
-        <v>199.08</v>
+        <v>200.83</v>
       </c>
     </row>
     <row r="369">
@@ -4424,10 +4424,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>43740</v>
+        <v>43655</v>
       </c>
       <c r="C369" t="n">
-        <v>194.72</v>
+        <v>202.8</v>
       </c>
     </row>
     <row r="370">
@@ -4435,10 +4435,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>43741</v>
+        <v>43656</v>
       </c>
       <c r="C370" t="n">
-        <v>193.73</v>
+        <v>201.04</v>
       </c>
     </row>
     <row r="371">
@@ -4446,10 +4446,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>43742</v>
+        <v>43657</v>
       </c>
       <c r="C371" t="n">
-        <v>197.23</v>
+        <v>206.3</v>
       </c>
     </row>
     <row r="372">
@@ -4457,10 +4457,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>43745</v>
+        <v>43658</v>
       </c>
       <c r="C372" t="n">
-        <v>196.83</v>
+        <v>208.82</v>
       </c>
     </row>
     <row r="373">
@@ -4468,10 +4468,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>43746</v>
+        <v>43661</v>
       </c>
       <c r="C373" t="n">
-        <v>193.86</v>
+        <v>206.52</v>
       </c>
     </row>
     <row r="374">
@@ -4479,10 +4479,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>43747</v>
+        <v>43662</v>
       </c>
       <c r="C374" t="n">
-        <v>193.35</v>
+        <v>210.37</v>
       </c>
     </row>
     <row r="375">
@@ -4490,10 +4490,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>43748</v>
+        <v>43663</v>
       </c>
       <c r="C375" t="n">
-        <v>196.31</v>
+        <v>208.2</v>
       </c>
     </row>
     <row r="376">
@@ -4501,10 +4501,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>43749</v>
+        <v>43664</v>
       </c>
       <c r="C376" t="n">
-        <v>201.04</v>
+        <v>209.39</v>
       </c>
     </row>
     <row r="377">
@@ -4512,10 +4512,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>43752</v>
+        <v>43665</v>
       </c>
       <c r="C377" t="n">
-        <v>202.16</v>
+        <v>208.41</v>
       </c>
     </row>
     <row r="378">
@@ -4523,10 +4523,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>43753</v>
+        <v>43668</v>
       </c>
       <c r="C378" t="n">
-        <v>202.79</v>
+        <v>208.88</v>
       </c>
     </row>
     <row r="379">
@@ -4534,10 +4534,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>43754</v>
+        <v>43669</v>
       </c>
       <c r="C379" t="n">
-        <v>203.73</v>
+        <v>214.18</v>
       </c>
     </row>
     <row r="380">
@@ -4545,10 +4545,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>43755</v>
+        <v>43670</v>
       </c>
       <c r="C380" t="n">
-        <v>202.79</v>
+        <v>216.72</v>
       </c>
     </row>
     <row r="381">
@@ -4556,10 +4556,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>43756</v>
+        <v>43671</v>
       </c>
       <c r="C381" t="n">
-        <v>202.85</v>
+        <v>214.72</v>
       </c>
     </row>
     <row r="382">
@@ -4567,10 +4567,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>43759</v>
+        <v>43672</v>
       </c>
       <c r="C382" t="n">
-        <v>205.53</v>
+        <v>216.83</v>
       </c>
     </row>
     <row r="383">
@@ -4578,10 +4578,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>43760</v>
+        <v>43675</v>
       </c>
       <c r="C383" t="n">
-        <v>205.87</v>
+        <v>215.05</v>
       </c>
     </row>
     <row r="384">
@@ -4589,10 +4589,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>43761</v>
+        <v>43676</v>
       </c>
       <c r="C384" t="n">
-        <v>207.56</v>
+        <v>216.11</v>
       </c>
     </row>
     <row r="385">
@@ -4600,10 +4600,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>43762</v>
+        <v>43677</v>
       </c>
       <c r="C385" t="n">
-        <v>207.3</v>
+        <v>214.87</v>
       </c>
     </row>
     <row r="386">
@@ -4611,10 +4611,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>43763</v>
+        <v>43678</v>
       </c>
       <c r="C386" t="n">
-        <v>210.42</v>
+        <v>206.54</v>
       </c>
     </row>
     <row r="387">
@@ -4622,10 +4622,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>43766</v>
+        <v>43679</v>
       </c>
       <c r="C387" t="n">
-        <v>213.88</v>
+        <v>204.36</v>
       </c>
     </row>
     <row r="388">
@@ -4633,10 +4633,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>43767</v>
+        <v>43682</v>
       </c>
       <c r="C388" t="n">
-        <v>213.77</v>
+        <v>196.86</v>
       </c>
     </row>
     <row r="389">
@@ -4644,10 +4644,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>43768</v>
+        <v>43683</v>
       </c>
       <c r="C389" t="n">
-        <v>211.97</v>
+        <v>201.08</v>
       </c>
     </row>
     <row r="390">
@@ -4655,10 +4655,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>43769</v>
+        <v>43684</v>
       </c>
       <c r="C390" t="n">
-        <v>209.58</v>
+        <v>200.82</v>
       </c>
     </row>
     <row r="391">
@@ -4666,10 +4666,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>43770</v>
+        <v>43685</v>
       </c>
       <c r="C391" t="n">
-        <v>213.52</v>
+        <v>202.05</v>
       </c>
     </row>
     <row r="392">
@@ -4677,10 +4677,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>43773</v>
+        <v>43686</v>
       </c>
       <c r="C392" t="n">
-        <v>215.96</v>
+        <v>201.95</v>
       </c>
     </row>
     <row r="393">
@@ -4688,10 +4688,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>43774</v>
+        <v>43689</v>
       </c>
       <c r="C393" t="n">
-        <v>214.75</v>
+        <v>196.7</v>
       </c>
     </row>
     <row r="394">
@@ -4699,10 +4699,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>43775</v>
+        <v>43690</v>
       </c>
       <c r="C394" t="n">
-        <v>214.53</v>
+        <v>199.23</v>
       </c>
     </row>
     <row r="395">
@@ -4710,10 +4710,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>43776</v>
+        <v>43691</v>
       </c>
       <c r="C395" t="n">
-        <v>219.32</v>
+        <v>190.88</v>
       </c>
     </row>
     <row r="396">
@@ -4721,10 +4721,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>43777</v>
+        <v>43692</v>
       </c>
       <c r="C396" t="n">
-        <v>218.94</v>
+        <v>191.49</v>
       </c>
     </row>
     <row r="397">
@@ -4732,10 +4732,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>43780</v>
+        <v>43693</v>
       </c>
       <c r="C397" t="n">
-        <v>215.13</v>
+        <v>194.65</v>
       </c>
     </row>
     <row r="398">
@@ -4743,10 +4743,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>43781</v>
+        <v>43696</v>
       </c>
       <c r="C398" t="n">
-        <v>216.49</v>
+        <v>197.36</v>
       </c>
     </row>
     <row r="399">
@@ -4754,10 +4754,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>43782</v>
+        <v>43697</v>
       </c>
       <c r="C399" t="n">
-        <v>215.42</v>
+        <v>195.2</v>
       </c>
     </row>
     <row r="400">
@@ -4765,10 +4765,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>43783</v>
+        <v>43698</v>
       </c>
       <c r="C400" t="n">
-        <v>215.53</v>
+        <v>195.88</v>
       </c>
     </row>
     <row r="401">
@@ -4776,10 +4776,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>43784</v>
+        <v>43699</v>
       </c>
       <c r="C401" t="n">
-        <v>216.33</v>
+        <v>197.58</v>
       </c>
     </row>
     <row r="402">
@@ -4787,10 +4787,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>43787</v>
+        <v>43700</v>
       </c>
       <c r="C402" t="n">
-        <v>215.82</v>
+        <v>191.51</v>
       </c>
     </row>
     <row r="403">
@@ -4798,10 +4798,10 @@
         <v>401</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>43788</v>
+        <v>43703</v>
       </c>
       <c r="C403" t="n">
-        <v>216.13</v>
+        <v>194.88</v>
       </c>
     </row>
     <row r="404">
@@ -4809,10 +4809,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>43789</v>
+        <v>43704</v>
       </c>
       <c r="C404" t="n">
-        <v>214.03</v>
+        <v>193.33</v>
       </c>
     </row>
     <row r="405">
@@ -4820,10 +4820,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>43790</v>
+        <v>43705</v>
       </c>
       <c r="C405" t="n">
-        <v>214.35</v>
+        <v>195.63</v>
       </c>
     </row>
     <row r="406">
@@ -4831,10 +4831,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>43791</v>
+        <v>43706</v>
       </c>
       <c r="C406" t="n">
-        <v>216.36</v>
+        <v>199.82</v>
       </c>
     </row>
     <row r="407">
@@ -4842,10 +4842,10 @@
         <v>405</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>43794</v>
+        <v>43707</v>
       </c>
       <c r="C407" t="n">
-        <v>218.79</v>
+        <v>200.28</v>
       </c>
     </row>
     <row r="408">
@@ -4853,10 +4853,10 @@
         <v>406</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>43795</v>
+        <v>43711</v>
       </c>
       <c r="C408" t="n">
-        <v>218.49</v>
+        <v>195.43</v>
       </c>
     </row>
     <row r="409">
@@ -4864,10 +4864,10 @@
         <v>407</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>43796</v>
+        <v>43712</v>
       </c>
       <c r="C409" t="n">
-        <v>218.98</v>
+        <v>198.14</v>
       </c>
     </row>
     <row r="410">
@@ -4875,10 +4875,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>43798</v>
+        <v>43713</v>
       </c>
       <c r="C410" t="n">
-        <v>218.64</v>
+        <v>203.37</v>
       </c>
     </row>
     <row r="411">
@@ -4886,10 +4886,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>43801</v>
+        <v>43714</v>
       </c>
       <c r="C411" t="n">
-        <v>214.97</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="412">
@@ -4897,10 +4897,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>43802</v>
+        <v>43717</v>
       </c>
       <c r="C412" t="n">
-        <v>209.64</v>
+        <v>208.21</v>
       </c>
     </row>
     <row r="413">
@@ -4908,10 +4908,10 @@
         <v>411</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>43803</v>
+        <v>43718</v>
       </c>
       <c r="C413" t="n">
-        <v>213.29</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="414">
@@ -4919,10 +4919,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>43804</v>
+        <v>43719</v>
       </c>
       <c r="C414" t="n">
-        <v>214.48</v>
+        <v>212.94</v>
       </c>
     </row>
     <row r="415">
@@ -4930,10 +4930,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>43805</v>
+        <v>43720</v>
       </c>
       <c r="C415" t="n">
-        <v>221.86</v>
+        <v>214.85</v>
       </c>
     </row>
     <row r="416">
@@ -4941,10 +4941,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>43808</v>
+        <v>43721</v>
       </c>
       <c r="C416" t="n">
-        <v>219.09</v>
+        <v>215.99</v>
       </c>
     </row>
     <row r="417">
@@ -4952,10 +4952,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>43809</v>
+        <v>43724</v>
       </c>
       <c r="C417" t="n">
-        <v>219.16</v>
+        <v>213.36</v>
       </c>
     </row>
     <row r="418">
@@ -4963,10 +4963,10 @@
         <v>416</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>43810</v>
+        <v>43725</v>
       </c>
       <c r="C418" t="n">
-        <v>218.48</v>
+        <v>212.07</v>
       </c>
     </row>
     <row r="419">
@@ -4974,10 +4974,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>43811</v>
+        <v>43726</v>
       </c>
       <c r="C419" t="n">
-        <v>223.28</v>
+        <v>213.22</v>
       </c>
     </row>
     <row r="420">
@@ -4985,10 +4985,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>43812</v>
+        <v>43727</v>
       </c>
       <c r="C420" t="n">
-        <v>222.24</v>
+        <v>211.4</v>
       </c>
     </row>
     <row r="421">
@@ -4996,10 +4996,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>43815</v>
+        <v>43728</v>
       </c>
       <c r="C421" t="n">
-        <v>225.25</v>
+        <v>209.94</v>
       </c>
     </row>
     <row r="422">
@@ -5007,10 +5007,10 @@
         <v>420</v>
       </c>
       <c r="B422" s="2" t="n">
-        <v>43816</v>
+        <v>43731</v>
       </c>
       <c r="C422" t="n">
-        <v>228.32</v>
+        <v>209.66</v>
       </c>
     </row>
     <row r="423">
@@ -5018,10 +5018,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>43817</v>
+        <v>43732</v>
       </c>
       <c r="C423" t="n">
-        <v>227.63</v>
+        <v>204.05</v>
       </c>
     </row>
     <row r="424">
@@ -5029,10 +5029,10 @@
         <v>422</v>
       </c>
       <c r="B424" s="2" t="n">
-        <v>43818</v>
+        <v>43733</v>
       </c>
       <c r="C424" t="n">
-        <v>227.12</v>
+        <v>206.29</v>
       </c>
     </row>
     <row r="425">
@@ -5040,10 +5040,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2" t="n">
-        <v>43819</v>
+        <v>43734</v>
       </c>
       <c r="C425" t="n">
-        <v>226.13</v>
+        <v>204.52</v>
       </c>
     </row>
     <row r="426">
@@ -5051,10 +5051,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>43822</v>
+        <v>43735</v>
       </c>
       <c r="C426" t="n">
-        <v>226.28</v>
+        <v>205.25</v>
       </c>
     </row>
     <row r="427">
@@ -5062,10 +5062,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>43823</v>
+        <v>43738</v>
       </c>
       <c r="C427" t="n">
-        <v>227.09</v>
+        <v>203.54</v>
       </c>
     </row>
     <row r="428">
@@ -5073,10 +5073,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>43825</v>
+        <v>43739</v>
       </c>
       <c r="C428" t="n">
-        <v>228.38</v>
+        <v>199.08</v>
       </c>
     </row>
     <row r="429">
@@ -5084,10 +5084,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>43826</v>
+        <v>43740</v>
       </c>
       <c r="C429" t="n">
-        <v>227.83</v>
+        <v>194.72</v>
       </c>
     </row>
     <row r="430">
@@ -5095,10 +5095,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>43829</v>
+        <v>43741</v>
       </c>
       <c r="C430" t="n">
-        <v>226.98</v>
+        <v>193.73</v>
       </c>
     </row>
     <row r="431">
@@ -5106,10 +5106,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>43830</v>
+        <v>43742</v>
       </c>
       <c r="C431" t="n">
-        <v>227.11</v>
+        <v>197.23</v>
       </c>
     </row>
     <row r="432">
@@ -5117,10 +5117,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>43832</v>
+        <v>43745</v>
       </c>
       <c r="C432" t="n">
-        <v>231.45</v>
+        <v>196.83</v>
       </c>
     </row>
     <row r="433">
@@ -5128,10 +5128,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>43833</v>
+        <v>43746</v>
       </c>
       <c r="C433" t="n">
-        <v>228.74</v>
+        <v>193.86</v>
       </c>
     </row>
     <row r="434">
@@ -5139,10 +5139,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>43836</v>
+        <v>43747</v>
       </c>
       <c r="C434" t="n">
-        <v>231.08</v>
+        <v>193.35</v>
       </c>
     </row>
     <row r="435">
@@ -5150,10 +5150,10 @@
         <v>433</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>43837</v>
+        <v>43748</v>
       </c>
       <c r="C435" t="n">
-        <v>232.6</v>
+        <v>196.31</v>
       </c>
     </row>
     <row r="436">
@@ -5161,10 +5161,10 @@
         <v>434</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>43838</v>
+        <v>43749</v>
       </c>
       <c r="C436" t="n">
-        <v>234.85</v>
+        <v>201.04</v>
       </c>
     </row>
     <row r="437">
@@ -5172,10 +5172,10 @@
         <v>435</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>43839</v>
+        <v>43752</v>
       </c>
       <c r="C437" t="n">
-        <v>239.63</v>
+        <v>202.16</v>
       </c>
     </row>
     <row r="438">
@@ -5183,10 +5183,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>43840</v>
+        <v>43753</v>
       </c>
       <c r="C438" t="n">
-        <v>239.14</v>
+        <v>202.79</v>
       </c>
     </row>
     <row r="439">
@@ -5194,10 +5194,10 @@
         <v>437</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>43843</v>
+        <v>43754</v>
       </c>
       <c r="C439" t="n">
-        <v>242.21</v>
+        <v>203.73</v>
       </c>
     </row>
     <row r="440">
@@ -5205,10 +5205,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>43844</v>
+        <v>43755</v>
       </c>
       <c r="C440" t="n">
-        <v>242.65</v>
+        <v>202.79</v>
       </c>
     </row>
     <row r="441">
@@ -5216,10 +5216,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>43845</v>
+        <v>43756</v>
       </c>
       <c r="C441" t="n">
-        <v>242.21</v>
+        <v>202.85</v>
       </c>
     </row>
     <row r="442">
@@ -5227,10 +5227,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>43846</v>
+        <v>43759</v>
       </c>
       <c r="C442" t="n">
-        <v>246.66</v>
+        <v>205.53</v>
       </c>
     </row>
     <row r="443">
@@ -5238,10 +5238,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>43847</v>
+        <v>43760</v>
       </c>
       <c r="C443" t="n">
-        <v>246.4</v>
+        <v>205.87</v>
       </c>
     </row>
     <row r="444">
@@ -5249,10 +5249,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>43851</v>
+        <v>43761</v>
       </c>
       <c r="C444" t="n">
-        <v>242.69</v>
+        <v>207.56</v>
       </c>
     </row>
     <row r="445">
@@ -5260,10 +5260,10 @@
         <v>443</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>43852</v>
+        <v>43762</v>
       </c>
       <c r="C445" t="n">
-        <v>244.02</v>
+        <v>207.3</v>
       </c>
     </row>
     <row r="446">
@@ -5271,10 +5271,10 @@
         <v>444</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>43853</v>
+        <v>43763</v>
       </c>
       <c r="C446" t="n">
-        <v>242.57</v>
+        <v>210.42</v>
       </c>
     </row>
     <row r="447">
@@ -5282,10 +5282,10 @@
         <v>445</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>43854</v>
+        <v>43766</v>
       </c>
       <c r="C447" t="n">
-        <v>238.96</v>
+        <v>213.88</v>
       </c>
     </row>
     <row r="448">
@@ -5293,10 +5293,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>43857</v>
+        <v>43767</v>
       </c>
       <c r="C448" t="n">
-        <v>235.22</v>
+        <v>213.77</v>
       </c>
     </row>
     <row r="449">
@@ -5304,10 +5304,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>43858</v>
+        <v>43768</v>
       </c>
       <c r="C449" t="n">
-        <v>239.61</v>
+        <v>211.97</v>
       </c>
     </row>
     <row r="450">
@@ -5315,10 +5315,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>43859</v>
+        <v>43769</v>
       </c>
       <c r="C450" t="n">
-        <v>237.18</v>
+        <v>209.58</v>
       </c>
     </row>
     <row r="451">
@@ -5326,10 +5326,10 @@
         <v>449</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>43860</v>
+        <v>43770</v>
       </c>
       <c r="C451" t="n">
-        <v>241.14</v>
+        <v>213.52</v>
       </c>
     </row>
     <row r="452">
@@ -5337,10 +5337,10 @@
         <v>450</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>43861</v>
+        <v>43773</v>
       </c>
       <c r="C452" t="n">
-        <v>234.84</v>
+        <v>215.96</v>
       </c>
     </row>
     <row r="453">
@@ -5348,10 +5348,10 @@
         <v>451</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>43864</v>
+        <v>43774</v>
       </c>
       <c r="C453" t="n">
-        <v>236.08</v>
+        <v>214.75</v>
       </c>
     </row>
     <row r="454">
@@ -5359,10 +5359,10 @@
         <v>452</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>43865</v>
+        <v>43775</v>
       </c>
       <c r="C454" t="n">
-        <v>238.98</v>
+        <v>214.53</v>
       </c>
     </row>
     <row r="455">
@@ -5370,10 +5370,10 @@
         <v>453</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>43866</v>
+        <v>43776</v>
       </c>
       <c r="C455" t="n">
-        <v>241.31</v>
+        <v>219.32</v>
       </c>
     </row>
     <row r="456">
@@ -5381,10 +5381,10 @@
         <v>454</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>43867</v>
+        <v>43777</v>
       </c>
       <c r="C456" t="n">
-        <v>238.86</v>
+        <v>218.94</v>
       </c>
     </row>
     <row r="457">
@@ -5392,10 +5392,10 @@
         <v>455</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>43868</v>
+        <v>43780</v>
       </c>
       <c r="C457" t="n">
-        <v>235.08</v>
+        <v>215.13</v>
       </c>
     </row>
     <row r="458">
@@ -5403,10 +5403,10 @@
         <v>456</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>43871</v>
+        <v>43781</v>
       </c>
       <c r="C458" t="n">
-        <v>234.45</v>
+        <v>216.49</v>
       </c>
     </row>
     <row r="459">
@@ -5414,10 +5414,10 @@
         <v>457</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>43872</v>
+        <v>43782</v>
       </c>
       <c r="C459" t="n">
-        <v>233.56</v>
+        <v>215.42</v>
       </c>
     </row>
     <row r="460">
@@ -5425,10 +5425,10 @@
         <v>458</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>43873</v>
+        <v>43783</v>
       </c>
       <c r="C460" t="n">
-        <v>235.73</v>
+        <v>215.53</v>
       </c>
     </row>
     <row r="461">
@@ -5436,10 +5436,10 @@
         <v>459</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>43874</v>
+        <v>43784</v>
       </c>
       <c r="C461" t="n">
-        <v>235.43</v>
+        <v>216.33</v>
       </c>
     </row>
     <row r="462">
@@ -5447,10 +5447,10 @@
         <v>460</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>43875</v>
+        <v>43787</v>
       </c>
       <c r="C462" t="n">
-        <v>234.18</v>
+        <v>215.82</v>
       </c>
     </row>
     <row r="463">
@@ -5458,10 +5458,10 @@
         <v>461</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>43879</v>
+        <v>43788</v>
       </c>
       <c r="C463" t="n">
-        <v>230.35</v>
+        <v>216.13</v>
       </c>
     </row>
     <row r="464">
@@ -5469,10 +5469,10 @@
         <v>462</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>43880</v>
+        <v>43789</v>
       </c>
       <c r="C464" t="n">
-        <v>234.42</v>
+        <v>214.03</v>
       </c>
     </row>
     <row r="465">
@@ -5480,10 +5480,10 @@
         <v>463</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>43881</v>
+        <v>43790</v>
       </c>
       <c r="C465" t="n">
-        <v>229.88</v>
+        <v>214.35</v>
       </c>
     </row>
     <row r="466">
@@ -5491,10 +5491,10 @@
         <v>464</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>43882</v>
+        <v>43791</v>
       </c>
       <c r="C466" t="n">
-        <v>227.79</v>
+        <v>216.36</v>
       </c>
     </row>
     <row r="467">
@@ -5502,10 +5502,10 @@
         <v>465</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>43885</v>
+        <v>43794</v>
       </c>
       <c r="C467" t="n">
-        <v>221.79</v>
+        <v>218.79</v>
       </c>
     </row>
     <row r="468">
@@ -5513,10 +5513,10 @@
         <v>466</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>43886</v>
+        <v>43795</v>
       </c>
       <c r="C468" t="n">
-        <v>214.94</v>
+        <v>218.49</v>
       </c>
     </row>
     <row r="469">
@@ -5524,10 +5524,10 @@
         <v>467</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>43887</v>
+        <v>43796</v>
       </c>
       <c r="C469" t="n">
-        <v>213.14</v>
+        <v>218.98</v>
       </c>
     </row>
     <row r="470">
@@ -5535,10 +5535,10 @@
         <v>468</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>43888</v>
+        <v>43798</v>
       </c>
       <c r="C470" t="n">
-        <v>203.17</v>
+        <v>218.64</v>
       </c>
     </row>
     <row r="471">
@@ -5546,10 +5546,10 @@
         <v>469</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>43889</v>
+        <v>43801</v>
       </c>
       <c r="C471" t="n">
-        <v>199.52</v>
+        <v>214.97</v>
       </c>
     </row>
     <row r="472">
@@ -5557,10 +5557,10 @@
         <v>470</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>43892</v>
+        <v>43802</v>
       </c>
       <c r="C472" t="n">
-        <v>208.17</v>
+        <v>209.64</v>
       </c>
     </row>
     <row r="473">
@@ -5568,10 +5568,10 @@
         <v>471</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>43893</v>
+        <v>43803</v>
       </c>
       <c r="C473" t="n">
-        <v>202.17</v>
+        <v>213.29</v>
       </c>
     </row>
     <row r="474">
@@ -5579,10 +5579,10 @@
         <v>472</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>43894</v>
+        <v>43804</v>
       </c>
       <c r="C474" t="n">
-        <v>207.44</v>
+        <v>214.48</v>
       </c>
     </row>
     <row r="475">
@@ -5590,10 +5590,10 @@
         <v>473</v>
       </c>
       <c r="B475" s="2" t="n">
-        <v>43895</v>
+        <v>43805</v>
       </c>
       <c r="C475" t="n">
-        <v>197.56</v>
+        <v>221.86</v>
       </c>
     </row>
     <row r="476">
@@ -5601,10 +5601,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="2" t="n">
-        <v>43896</v>
+        <v>43808</v>
       </c>
       <c r="C476" t="n">
-        <v>191.65</v>
+        <v>219.09</v>
       </c>
     </row>
     <row r="477">
@@ -5612,10 +5612,10 @@
         <v>475</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>43899</v>
+        <v>43809</v>
       </c>
       <c r="C477" t="n">
-        <v>171.74</v>
+        <v>219.16</v>
       </c>
     </row>
     <row r="478">
@@ -5623,10 +5623,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>43900</v>
+        <v>43810</v>
       </c>
       <c r="C478" t="n">
-        <v>183.2</v>
+        <v>218.48</v>
       </c>
     </row>
     <row r="479">
@@ -5634,10 +5634,10 @@
         <v>477</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>43901</v>
+        <v>43811</v>
       </c>
       <c r="C479" t="n">
-        <v>170.82</v>
+        <v>223.28</v>
       </c>
     </row>
     <row r="480">
@@ -5645,10 +5645,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>43902</v>
+        <v>43812</v>
       </c>
       <c r="C480" t="n">
-        <v>149.74</v>
+        <v>222.24</v>
       </c>
     </row>
     <row r="481">
@@ -5656,10 +5656,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>43903</v>
+        <v>43815</v>
       </c>
       <c r="C481" t="n">
-        <v>176.07</v>
+        <v>225.25</v>
       </c>
     </row>
     <row r="482">
@@ -5667,10 +5667,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>43906</v>
+        <v>43816</v>
       </c>
       <c r="C482" t="n">
-        <v>153.7</v>
+        <v>228.32</v>
       </c>
     </row>
     <row r="483">
@@ -5678,10 +5678,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>43907</v>
+        <v>43817</v>
       </c>
       <c r="C483" t="n">
-        <v>157.68</v>
+        <v>227.63</v>
       </c>
     </row>
     <row r="484">
@@ -5689,10 +5689,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>43908</v>
+        <v>43818</v>
       </c>
       <c r="C484" t="n">
-        <v>139.15</v>
+        <v>227.12</v>
       </c>
     </row>
     <row r="485">
@@ -5700,10 +5700,10 @@
         <v>483</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>43909</v>
+        <v>43819</v>
       </c>
       <c r="C485" t="n">
-        <v>148.56</v>
+        <v>226.13</v>
       </c>
     </row>
     <row r="486">
@@ -5711,10 +5711,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>43910</v>
+        <v>43822</v>
       </c>
       <c r="C486" t="n">
-        <v>137.55</v>
+        <v>226.28</v>
       </c>
     </row>
     <row r="487">
@@ -5722,10 +5722,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>43913</v>
+        <v>43823</v>
       </c>
       <c r="C487" t="n">
-        <v>134.13</v>
+        <v>227.09</v>
       </c>
     </row>
     <row r="488">
@@ -5733,10 +5733,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>43914</v>
+        <v>43825</v>
       </c>
       <c r="C488" t="n">
-        <v>152.65</v>
+        <v>228.38</v>
       </c>
     </row>
     <row r="489">
@@ -5744,10 +5744,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>43915</v>
+        <v>43826</v>
       </c>
       <c r="C489" t="n">
-        <v>154.17</v>
+        <v>227.83</v>
       </c>
     </row>
     <row r="490">
@@ -5755,10 +5755,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>43916</v>
+        <v>43829</v>
       </c>
       <c r="C490" t="n">
-        <v>164.76</v>
+        <v>226.98</v>
       </c>
     </row>
     <row r="491">
@@ -5766,10 +5766,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>43917</v>
+        <v>43830</v>
       </c>
       <c r="C491" t="n">
-        <v>157.36</v>
+        <v>227.11</v>
       </c>
     </row>
     <row r="492">
@@ -5777,10 +5777,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>43920</v>
+        <v>43832</v>
       </c>
       <c r="C492" t="n">
-        <v>158.63</v>
+        <v>231.45</v>
       </c>
     </row>
     <row r="493">
@@ -5788,10 +5788,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>43921</v>
+        <v>43833</v>
       </c>
       <c r="C493" t="n">
-        <v>153.63</v>
+        <v>228.74</v>
       </c>
     </row>
     <row r="494">
@@ -5799,10 +5799,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>43922</v>
+        <v>43836</v>
       </c>
       <c r="C494" t="n">
-        <v>144.39</v>
+        <v>231.08</v>
       </c>
     </row>
     <row r="495">
@@ -5810,10 +5810,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2" t="n">
-        <v>43923</v>
+        <v>43837</v>
       </c>
       <c r="C495" t="n">
-        <v>149</v>
+        <v>232.6</v>
       </c>
     </row>
     <row r="496">
@@ -5821,10 +5821,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>43924</v>
+        <v>43838</v>
       </c>
       <c r="C496" t="n">
-        <v>146.02</v>
+        <v>234.85</v>
       </c>
     </row>
     <row r="497">
@@ -5832,10 +5832,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>43927</v>
+        <v>43839</v>
       </c>
       <c r="C497" t="n">
-        <v>157.25</v>
+        <v>239.63</v>
       </c>
     </row>
     <row r="498">
@@ -5843,10 +5843,10 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>43928</v>
+        <v>43840</v>
       </c>
       <c r="C498" t="n">
-        <v>164.99</v>
+        <v>239.14</v>
       </c>
     </row>
     <row r="499">
@@ -5854,10 +5854,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>43929</v>
+        <v>43843</v>
       </c>
       <c r="C499" t="n">
-        <v>175.86</v>
+        <v>242.21</v>
       </c>
     </row>
     <row r="500">
@@ -5865,10 +5865,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>43930</v>
+        <v>43844</v>
       </c>
       <c r="C500" t="n">
-        <v>183.12</v>
+        <v>242.65</v>
       </c>
     </row>
     <row r="501">
@@ -5876,10 +5876,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>43934</v>
+        <v>43845</v>
       </c>
       <c r="C501" t="n">
-        <v>178.07</v>
+        <v>242.21</v>
       </c>
     </row>
     <row r="502">
@@ -5887,10 +5887,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>43935</v>
+        <v>43846</v>
       </c>
       <c r="C502" t="n">
-        <v>177.12</v>
+        <v>246.66</v>
       </c>
     </row>
     <row r="503">
@@ -5898,10 +5898,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>43936</v>
+        <v>43847</v>
       </c>
       <c r="C503" t="n">
-        <v>177.41</v>
+        <v>246.4</v>
       </c>
     </row>
     <row r="504">
@@ -5909,10 +5909,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>43937</v>
+        <v>43851</v>
       </c>
       <c r="C504" t="n">
-        <v>175.94</v>
+        <v>242.69</v>
       </c>
     </row>
     <row r="505">
@@ -5920,10 +5920,10 @@
         <v>503</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>43938</v>
+        <v>43852</v>
       </c>
       <c r="C505" t="n">
-        <v>182.35</v>
+        <v>244.02</v>
       </c>
     </row>
     <row r="506">
@@ -5931,10 +5931,10 @@
         <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>43941</v>
+        <v>43853</v>
       </c>
       <c r="C506" t="n">
-        <v>179.28</v>
+        <v>242.57</v>
       </c>
     </row>
     <row r="507">
@@ -5942,10 +5942,10 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>43942</v>
+        <v>43854</v>
       </c>
       <c r="C507" t="n">
-        <v>172.73</v>
+        <v>238.96</v>
       </c>
     </row>
     <row r="508">
@@ -5953,10 +5953,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>43943</v>
+        <v>43857</v>
       </c>
       <c r="C508" t="n">
-        <v>174.89</v>
+        <v>235.22</v>
       </c>
     </row>
     <row r="509">
@@ -5964,10 +5964,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>43944</v>
+        <v>43858</v>
       </c>
       <c r="C509" t="n">
-        <v>173.96</v>
+        <v>239.61</v>
       </c>
     </row>
     <row r="510">
@@ -5975,10 +5975,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>43945</v>
+        <v>43859</v>
       </c>
       <c r="C510" t="n">
-        <v>175.9</v>
+        <v>237.18</v>
       </c>
     </row>
     <row r="511">
@@ -5986,10 +5986,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>43948</v>
+        <v>43860</v>
       </c>
       <c r="C511" t="n">
-        <v>182.4</v>
+        <v>241.14</v>
       </c>
     </row>
     <row r="512">
@@ -5997,10 +5997,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>43949</v>
+        <v>43861</v>
       </c>
       <c r="C512" t="n">
-        <v>185.85</v>
+        <v>234.84</v>
       </c>
     </row>
     <row r="513">
@@ -6008,10 +6008,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>43950</v>
+        <v>43864</v>
       </c>
       <c r="C513" t="n">
-        <v>188.85</v>
+        <v>236.08</v>
       </c>
     </row>
     <row r="514">
@@ -6019,10 +6019,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>43951</v>
+        <v>43865</v>
       </c>
       <c r="C514" t="n">
-        <v>182.28</v>
+        <v>238.98</v>
       </c>
     </row>
     <row r="515">
@@ -6030,10 +6030,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>43952</v>
+        <v>43866</v>
       </c>
       <c r="C515" t="n">
-        <v>176</v>
+        <v>241.31</v>
       </c>
     </row>
     <row r="516">
@@ -6041,10 +6041,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>43955</v>
+        <v>43867</v>
       </c>
       <c r="C516" t="n">
-        <v>174.94</v>
+        <v>238.86</v>
       </c>
     </row>
     <row r="517">
@@ -6052,10 +6052,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>43956</v>
+        <v>43868</v>
       </c>
       <c r="C517" t="n">
-        <v>177.19</v>
+        <v>235.08</v>
       </c>
     </row>
     <row r="518">
@@ -6063,10 +6063,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>43957</v>
+        <v>43871</v>
       </c>
       <c r="C518" t="n">
-        <v>175.82</v>
+        <v>234.45</v>
       </c>
     </row>
     <row r="519">
@@ -6074,10 +6074,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>43958</v>
+        <v>43872</v>
       </c>
       <c r="C519" t="n">
-        <v>181.19</v>
+        <v>233.56</v>
       </c>
     </row>
     <row r="520">
@@ -6085,10 +6085,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>43959</v>
+        <v>43873</v>
       </c>
       <c r="C520" t="n">
-        <v>184.24</v>
+        <v>235.73</v>
       </c>
     </row>
     <row r="521">
@@ -6096,10 +6096,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>43962</v>
+        <v>43874</v>
       </c>
       <c r="C521" t="n">
-        <v>182.02</v>
+        <v>235.43</v>
       </c>
     </row>
     <row r="522">
@@ -6107,10 +6107,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>43963</v>
+        <v>43875</v>
       </c>
       <c r="C522" t="n">
-        <v>176.11</v>
+        <v>234.18</v>
       </c>
     </row>
     <row r="523">
@@ -6118,10 +6118,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>43964</v>
+        <v>43879</v>
       </c>
       <c r="C523" t="n">
-        <v>170.73</v>
+        <v>230.35</v>
       </c>
     </row>
     <row r="524">
@@ -6129,10 +6129,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>43965</v>
+        <v>43880</v>
       </c>
       <c r="C524" t="n">
-        <v>173.37</v>
+        <v>234.42</v>
       </c>
     </row>
     <row r="525">
@@ -6140,10 +6140,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>43966</v>
+        <v>43881</v>
       </c>
       <c r="C525" t="n">
-        <v>170.8</v>
+        <v>229.88</v>
       </c>
     </row>
     <row r="526">
@@ -6151,10 +6151,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>43969</v>
+        <v>43882</v>
       </c>
       <c r="C526" t="n">
-        <v>180.75</v>
+        <v>227.79</v>
       </c>
     </row>
     <row r="527">
@@ -6162,10 +6162,10 @@
         <v>525</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>43970</v>
+        <v>43885</v>
       </c>
       <c r="C527" t="n">
-        <v>176.73</v>
+        <v>221.79</v>
       </c>
     </row>
     <row r="528">
@@ -6173,10 +6173,10 @@
         <v>526</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>43971</v>
+        <v>43886</v>
       </c>
       <c r="C528" t="n">
-        <v>180.31</v>
+        <v>214.94</v>
       </c>
     </row>
     <row r="529">
@@ -6184,10 +6184,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>43972</v>
+        <v>43887</v>
       </c>
       <c r="C529" t="n">
-        <v>178.98</v>
+        <v>213.14</v>
       </c>
     </row>
     <row r="530">
@@ -6195,10 +6195,10 @@
         <v>528</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>43973</v>
+        <v>43888</v>
       </c>
       <c r="C530" t="n">
-        <v>178.81</v>
+        <v>203.17</v>
       </c>
     </row>
     <row r="531">
@@ -6206,10 +6206,10 @@
         <v>529</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>43977</v>
+        <v>43889</v>
       </c>
       <c r="C531" t="n">
-        <v>194.84</v>
+        <v>199.52</v>
       </c>
     </row>
     <row r="532">
@@ -6217,10 +6217,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>43978</v>
+        <v>43892</v>
       </c>
       <c r="C532" t="n">
-        <v>208.36</v>
+        <v>208.17</v>
       </c>
     </row>
     <row r="533">
@@ -6228,10 +6228,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>43979</v>
+        <v>43893</v>
       </c>
       <c r="C533" t="n">
-        <v>199.97</v>
+        <v>202.17</v>
       </c>
     </row>
     <row r="534">
@@ -6239,10 +6239,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>43980</v>
+        <v>43894</v>
       </c>
       <c r="C534" t="n">
-        <v>196.49</v>
+        <v>207.44</v>
       </c>
     </row>
     <row r="535">
@@ -6250,10 +6250,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>43983</v>
+        <v>43895</v>
       </c>
       <c r="C535" t="n">
-        <v>199.93</v>
+        <v>197.56</v>
       </c>
     </row>
     <row r="536">
@@ -6261,10 +6261,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>43984</v>
+        <v>43896</v>
       </c>
       <c r="C536" t="n">
-        <v>204.14</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="537">
@@ -6272,10 +6272,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>43985</v>
+        <v>43899</v>
       </c>
       <c r="C537" t="n">
-        <v>210.57</v>
+        <v>171.74</v>
       </c>
     </row>
     <row r="538">
@@ -6283,10 +6283,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>43986</v>
+        <v>43900</v>
       </c>
       <c r="C538" t="n">
-        <v>214.82</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="539">
@@ -6294,10 +6294,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>43987</v>
+        <v>43901</v>
       </c>
       <c r="C539" t="n">
-        <v>217.92</v>
+        <v>170.82</v>
       </c>
     </row>
     <row r="540">
@@ -6305,10 +6305,10 @@
         <v>538</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>43990</v>
+        <v>43902</v>
       </c>
       <c r="C540" t="n">
-        <v>220.81</v>
+        <v>149.74</v>
       </c>
     </row>
     <row r="541">
@@ -6316,10 +6316,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>43991</v>
+        <v>43903</v>
       </c>
       <c r="C541" t="n">
-        <v>218.1</v>
+        <v>176.07</v>
       </c>
     </row>
     <row r="542">
@@ -6327,10 +6327,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>43992</v>
+        <v>43906</v>
       </c>
       <c r="C542" t="n">
-        <v>213.52</v>
+        <v>153.7</v>
       </c>
     </row>
     <row r="543">
@@ -6338,10 +6338,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>43993</v>
+        <v>43907</v>
       </c>
       <c r="C543" t="n">
-        <v>194.13</v>
+        <v>157.68</v>
       </c>
     </row>
     <row r="544">
@@ -6349,10 +6349,10 @@
         <v>542</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>43994</v>
+        <v>43908</v>
       </c>
       <c r="C544" t="n">
-        <v>201.78</v>
+        <v>139.15</v>
       </c>
     </row>
     <row r="545">
@@ -6360,10 +6360,10 @@
         <v>543</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>43997</v>
+        <v>43909</v>
       </c>
       <c r="C545" t="n">
-        <v>206.31</v>
+        <v>148.56</v>
       </c>
     </row>
     <row r="546">
@@ -6371,10 +6371,10 @@
         <v>544</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>43998</v>
+        <v>43910</v>
       </c>
       <c r="C546" t="n">
-        <v>209.59</v>
+        <v>137.55</v>
       </c>
     </row>
     <row r="547">
@@ -6382,10 +6382,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>43999</v>
+        <v>43913</v>
       </c>
       <c r="C547" t="n">
-        <v>206.19</v>
+        <v>134.13</v>
       </c>
     </row>
     <row r="548">
@@ -6393,10 +6393,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44000</v>
+        <v>43914</v>
       </c>
       <c r="C548" t="n">
-        <v>203.84</v>
+        <v>152.65</v>
       </c>
     </row>
     <row r="549">
@@ -6404,10 +6404,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44001</v>
+        <v>43915</v>
       </c>
       <c r="C549" t="n">
-        <v>201.63</v>
+        <v>154.17</v>
       </c>
     </row>
     <row r="550">
@@ -6415,10 +6415,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44004</v>
+        <v>43916</v>
       </c>
       <c r="C550" t="n">
-        <v>203.42</v>
+        <v>164.76</v>
       </c>
     </row>
     <row r="551">
@@ -6426,10 +6426,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44005</v>
+        <v>43917</v>
       </c>
       <c r="C551" t="n">
-        <v>204.78</v>
+        <v>157.36</v>
       </c>
     </row>
     <row r="552">
@@ -6437,10 +6437,10 @@
         <v>550</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44006</v>
+        <v>43920</v>
       </c>
       <c r="C552" t="n">
-        <v>198.02</v>
+        <v>158.63</v>
       </c>
     </row>
     <row r="553">
@@ -6448,10 +6448,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44007</v>
+        <v>43921</v>
       </c>
       <c r="C553" t="n">
-        <v>207.1</v>
+        <v>153.63</v>
       </c>
     </row>
     <row r="554">
@@ -6459,10 +6459,10 @@
         <v>552</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44008</v>
+        <v>43922</v>
       </c>
       <c r="C554" t="n">
-        <v>189.19</v>
+        <v>144.39</v>
       </c>
     </row>
     <row r="555">
@@ -6470,10 +6470,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44011</v>
+        <v>43923</v>
       </c>
       <c r="C555" t="n">
-        <v>193.47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="556">
@@ -6481,10 +6481,10 @@
         <v>554</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44012</v>
+        <v>43924</v>
       </c>
       <c r="C556" t="n">
-        <v>197.62</v>
+        <v>146.02</v>
       </c>
     </row>
     <row r="557">
@@ -6492,10 +6492,10 @@
         <v>555</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44013</v>
+        <v>43927</v>
       </c>
       <c r="C557" t="n">
-        <v>197.57</v>
+        <v>157.25</v>
       </c>
     </row>
     <row r="558">
@@ -6503,10 +6503,10 @@
         <v>556</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44014</v>
+        <v>43928</v>
       </c>
       <c r="C558" t="n">
-        <v>197.4</v>
+        <v>164.99</v>
       </c>
     </row>
     <row r="559">
@@ -6514,10 +6514,10 @@
         <v>557</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44018</v>
+        <v>43929</v>
       </c>
       <c r="C559" t="n">
-        <v>207.36</v>
+        <v>175.86</v>
       </c>
     </row>
     <row r="560">
@@ -6525,10 +6525,10 @@
         <v>558</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44019</v>
+        <v>43930</v>
       </c>
       <c r="C560" t="n">
-        <v>199.36</v>
+        <v>183.12</v>
       </c>
     </row>
     <row r="561">
@@ -6536,10 +6536,10 @@
         <v>559</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44020</v>
+        <v>43934</v>
       </c>
       <c r="C561" t="n">
-        <v>202.25</v>
+        <v>178.07</v>
       </c>
     </row>
     <row r="562">
@@ -6547,10 +6547,10 @@
         <v>560</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44021</v>
+        <v>43935</v>
       </c>
       <c r="C562" t="n">
-        <v>196.83</v>
+        <v>177.12</v>
       </c>
     </row>
     <row r="563">
@@ -6558,10 +6558,10 @@
         <v>561</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44022</v>
+        <v>43936</v>
       </c>
       <c r="C563" t="n">
-        <v>205.56</v>
+        <v>177.41</v>
       </c>
     </row>
     <row r="564">
@@ -6569,10 +6569,10 @@
         <v>562</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44025</v>
+        <v>43937</v>
       </c>
       <c r="C564" t="n">
-        <v>208.88</v>
+        <v>175.94</v>
       </c>
     </row>
     <row r="565">
@@ -6580,10 +6580,10 @@
         <v>563</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44026</v>
+        <v>43938</v>
       </c>
       <c r="C565" t="n">
-        <v>214.01</v>
+        <v>182.35</v>
       </c>
     </row>
     <row r="566">
@@ -6591,10 +6591,10 @@
         <v>564</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44027</v>
+        <v>43941</v>
       </c>
       <c r="C566" t="n">
-        <v>216.9</v>
+        <v>179.28</v>
       </c>
     </row>
     <row r="567">
@@ -6602,10 +6602,10 @@
         <v>565</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44028</v>
+        <v>43942</v>
       </c>
       <c r="C567" t="n">
-        <v>214.67</v>
+        <v>172.73</v>
       </c>
     </row>
     <row r="568">
@@ -6613,10 +6613,10 @@
         <v>566</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44029</v>
+        <v>43943</v>
       </c>
       <c r="C568" t="n">
-        <v>211.41</v>
+        <v>174.89</v>
       </c>
     </row>
     <row r="569">
@@ -6624,10 +6624,10 @@
         <v>567</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44032</v>
+        <v>43944</v>
       </c>
       <c r="C569" t="n">
-        <v>211.71</v>
+        <v>173.96</v>
       </c>
     </row>
     <row r="570">
@@ -6635,10 +6635,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44033</v>
+        <v>43945</v>
       </c>
       <c r="C570" t="n">
-        <v>212.02</v>
+        <v>175.9</v>
       </c>
     </row>
     <row r="571">
@@ -6646,10 +6646,10 @@
         <v>569</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44034</v>
+        <v>43948</v>
       </c>
       <c r="C571" t="n">
-        <v>206</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="572">
@@ -6657,10 +6657,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44035</v>
+        <v>43949</v>
       </c>
       <c r="C572" t="n">
-        <v>203.02</v>
+        <v>185.85</v>
       </c>
     </row>
     <row r="573">
@@ -6668,10 +6668,10 @@
         <v>571</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44036</v>
+        <v>43950</v>
       </c>
       <c r="C573" t="n">
-        <v>201.47</v>
+        <v>188.85</v>
       </c>
     </row>
     <row r="574">
@@ -6679,10 +6679,10 @@
         <v>572</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44039</v>
+        <v>43951</v>
       </c>
       <c r="C574" t="n">
-        <v>203.02</v>
+        <v>182.28</v>
       </c>
     </row>
     <row r="575">
@@ -6690,10 +6690,10 @@
         <v>573</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44040</v>
+        <v>43952</v>
       </c>
       <c r="C575" t="n">
-        <v>201.62</v>
+        <v>176</v>
       </c>
     </row>
     <row r="576">
@@ -6701,10 +6701,10 @@
         <v>574</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44041</v>
+        <v>43955</v>
       </c>
       <c r="C576" t="n">
-        <v>202.58</v>
+        <v>174.94</v>
       </c>
     </row>
     <row r="577">
@@ -6712,10 +6712,10 @@
         <v>575</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44042</v>
+        <v>43956</v>
       </c>
       <c r="C577" t="n">
-        <v>199.53</v>
+        <v>177.19</v>
       </c>
     </row>
     <row r="578">
@@ -6723,10 +6723,725 @@
         <v>576</v>
       </c>
       <c r="B578" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="C578" t="n">
+        <v>175.82</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="C579" t="n">
+        <v>181.19</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="C580" t="n">
+        <v>184.24</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>43962</v>
+      </c>
+      <c r="C581" t="n">
+        <v>182.02</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>43963</v>
+      </c>
+      <c r="C582" t="n">
+        <v>176.11</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>43964</v>
+      </c>
+      <c r="C583" t="n">
+        <v>170.73</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>43965</v>
+      </c>
+      <c r="C584" t="n">
+        <v>173.37</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>43966</v>
+      </c>
+      <c r="C585" t="n">
+        <v>170.8</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>43969</v>
+      </c>
+      <c r="C586" t="n">
+        <v>180.75</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>43970</v>
+      </c>
+      <c r="C587" t="n">
+        <v>176.73</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>43971</v>
+      </c>
+      <c r="C588" t="n">
+        <v>180.31</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>43972</v>
+      </c>
+      <c r="C589" t="n">
+        <v>178.98</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>43973</v>
+      </c>
+      <c r="C590" t="n">
+        <v>178.81</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>43977</v>
+      </c>
+      <c r="C591" t="n">
+        <v>194.84</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>43978</v>
+      </c>
+      <c r="C592" t="n">
+        <v>208.36</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>43979</v>
+      </c>
+      <c r="C593" t="n">
+        <v>199.97</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="C594" t="n">
+        <v>196.49</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C595" t="n">
+        <v>199.93</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>43984</v>
+      </c>
+      <c r="C596" t="n">
+        <v>204.14</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>43985</v>
+      </c>
+      <c r="C597" t="n">
+        <v>210.57</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="C598" t="n">
+        <v>214.82</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="C599" t="n">
+        <v>217.92</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="C600" t="n">
+        <v>220.81</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>43991</v>
+      </c>
+      <c r="C601" t="n">
+        <v>218.1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="C602" t="n">
+        <v>213.52</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>43993</v>
+      </c>
+      <c r="C603" t="n">
+        <v>194.13</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>43994</v>
+      </c>
+      <c r="C604" t="n">
+        <v>201.78</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>43997</v>
+      </c>
+      <c r="C605" t="n">
+        <v>206.31</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>43998</v>
+      </c>
+      <c r="C606" t="n">
+        <v>209.59</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>43999</v>
+      </c>
+      <c r="C607" t="n">
+        <v>206.19</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C608" t="n">
+        <v>203.84</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>44001</v>
+      </c>
+      <c r="C609" t="n">
+        <v>201.63</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>44004</v>
+      </c>
+      <c r="C610" t="n">
+        <v>203.42</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>44005</v>
+      </c>
+      <c r="C611" t="n">
+        <v>204.78</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>44006</v>
+      </c>
+      <c r="C612" t="n">
+        <v>198.02</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>44007</v>
+      </c>
+      <c r="C613" t="n">
+        <v>207.1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>44008</v>
+      </c>
+      <c r="C614" t="n">
+        <v>189.19</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>44011</v>
+      </c>
+      <c r="C615" t="n">
+        <v>193.47</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="C616" t="n">
+        <v>197.62</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C617" t="n">
+        <v>197.57</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>44014</v>
+      </c>
+      <c r="C618" t="n">
+        <v>197.4</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>44018</v>
+      </c>
+      <c r="C619" t="n">
+        <v>207.36</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>44019</v>
+      </c>
+      <c r="C620" t="n">
+        <v>199.36</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>44020</v>
+      </c>
+      <c r="C621" t="n">
+        <v>202.25</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>44021</v>
+      </c>
+      <c r="C622" t="n">
+        <v>196.83</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>44022</v>
+      </c>
+      <c r="C623" t="n">
+        <v>205.56</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>44025</v>
+      </c>
+      <c r="C624" t="n">
+        <v>208.88</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>44026</v>
+      </c>
+      <c r="C625" t="n">
+        <v>214.01</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>44027</v>
+      </c>
+      <c r="C626" t="n">
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C627" t="n">
+        <v>214.67</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>44029</v>
+      </c>
+      <c r="C628" t="n">
+        <v>211.41</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>44032</v>
+      </c>
+      <c r="C629" t="n">
+        <v>211.71</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>44033</v>
+      </c>
+      <c r="C630" t="n">
+        <v>212.02</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>44034</v>
+      </c>
+      <c r="C631" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>44035</v>
+      </c>
+      <c r="C632" t="n">
+        <v>203.02</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>44036</v>
+      </c>
+      <c r="C633" t="n">
+        <v>201.47</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>44039</v>
+      </c>
+      <c r="C634" t="n">
+        <v>203.02</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>44040</v>
+      </c>
+      <c r="C635" t="n">
+        <v>201.62</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>44041</v>
+      </c>
+      <c r="C636" t="n">
+        <v>202.58</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="C637" t="n">
+        <v>199.53</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2" t="n">
         <v>44043</v>
       </c>
-      <c r="C578" t="n">
+      <c r="C638" t="n">
         <v>197.96</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>44046</v>
+      </c>
+      <c r="C639" t="n">
+        <v>199.39</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>44047</v>
+      </c>
+      <c r="C640" t="n">
+        <v>201.64</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>44048</v>
+      </c>
+      <c r="C641" t="n">
+        <v>204.52</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>44049</v>
+      </c>
+      <c r="C642" t="n">
+        <v>204.25</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>44050</v>
+      </c>
+      <c r="C643" t="n">
+        <v>208.27</v>
       </c>
     </row>
   </sheetData>
